--- a/notes/items.xlsx
+++ b/notes/items.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$129</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="1130">
   <si>
     <t>Original</t>
   </si>
@@ -1927,30 +1928,15 @@
     <t>https://en.wikipedia.org/wiki/Enka</t>
   </si>
   <si>
-    <t>Enka's Heart</t>
-  </si>
-  <si>
     <t>Rock Screaming</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Screaming_(music)</t>
   </si>
   <si>
-    <t>Golden Award</t>
-  </si>
-  <si>
-    <t>Silver Award</t>
-  </si>
-  <si>
-    <t>Bronze Award</t>
-  </si>
-  <si>
     <t>Idol's Frill</t>
   </si>
   <si>
-    <t>Hero Fight</t>
-  </si>
-  <si>
     <t>Young Girl Tears</t>
   </si>
   <si>
@@ -2018,6 +2004,1410 @@
   </si>
   <si>
     <t>Coppelia</t>
+  </si>
+  <si>
+    <t>Win the mouse race</t>
+  </si>
+  <si>
+    <t>5C5DE</t>
+  </si>
+  <si>
+    <t>5C9A6</t>
+  </si>
+  <si>
+    <t>5CB92</t>
+  </si>
+  <si>
+    <t>5C8A4</t>
+  </si>
+  <si>
+    <t>5CBA4</t>
+  </si>
+  <si>
+    <t>5C368</t>
+  </si>
+  <si>
+    <t>5C37A</t>
+  </si>
+  <si>
+    <t>5C38B</t>
+  </si>
+  <si>
+    <t>5C39D</t>
+  </si>
+  <si>
+    <t>5C3AF</t>
+  </si>
+  <si>
+    <t>5C3C1</t>
+  </si>
+  <si>
+    <t>5C3D2</t>
+  </si>
+  <si>
+    <t>5C3E3</t>
+  </si>
+  <si>
+    <t>5C3F4</t>
+  </si>
+  <si>
+    <t>5C406</t>
+  </si>
+  <si>
+    <t>5C418</t>
+  </si>
+  <si>
+    <t>5C42A</t>
+  </si>
+  <si>
+    <t>5C43C</t>
+  </si>
+  <si>
+    <t>5C44E</t>
+  </si>
+  <si>
+    <t>5C460</t>
+  </si>
+  <si>
+    <t>5C472</t>
+  </si>
+  <si>
+    <t>5C483</t>
+  </si>
+  <si>
+    <t>5C495</t>
+  </si>
+  <si>
+    <t>5C4A6</t>
+  </si>
+  <si>
+    <t>5C4B7</t>
+  </si>
+  <si>
+    <t>5C4C7</t>
+  </si>
+  <si>
+    <t>5C4D9</t>
+  </si>
+  <si>
+    <t>5C4EB</t>
+  </si>
+  <si>
+    <t>5C4FD</t>
+  </si>
+  <si>
+    <t>5C50D</t>
+  </si>
+  <si>
+    <t>5C51E</t>
+  </si>
+  <si>
+    <t>5C52E</t>
+  </si>
+  <si>
+    <t>5C53F</t>
+  </si>
+  <si>
+    <t>5C552</t>
+  </si>
+  <si>
+    <t>5C563</t>
+  </si>
+  <si>
+    <t>5C575</t>
+  </si>
+  <si>
+    <t>5C588</t>
+  </si>
+  <si>
+    <t>5C59A</t>
+  </si>
+  <si>
+    <t>5C5AB</t>
+  </si>
+  <si>
+    <t>5C5BC</t>
+  </si>
+  <si>
+    <t>5C5CD</t>
+  </si>
+  <si>
+    <t>5C5F0</t>
+  </si>
+  <si>
+    <t>5C601</t>
+  </si>
+  <si>
+    <t>5C615</t>
+  </si>
+  <si>
+    <t>5C629</t>
+  </si>
+  <si>
+    <t>5C63B</t>
+  </si>
+  <si>
+    <t>5C64C</t>
+  </si>
+  <si>
+    <t>5C65E</t>
+  </si>
+  <si>
+    <t>5C66F</t>
+  </si>
+  <si>
+    <t>5C681</t>
+  </si>
+  <si>
+    <t>5C693</t>
+  </si>
+  <si>
+    <t>5C6A2</t>
+  </si>
+  <si>
+    <t>5C6B3</t>
+  </si>
+  <si>
+    <t>5C6C7</t>
+  </si>
+  <si>
+    <t>5C6D9</t>
+  </si>
+  <si>
+    <t>5C6EA</t>
+  </si>
+  <si>
+    <t>5C6FB</t>
+  </si>
+  <si>
+    <t>5C70C</t>
+  </si>
+  <si>
+    <t>5C71D</t>
+  </si>
+  <si>
+    <t>5C72F</t>
+  </si>
+  <si>
+    <t>5C740</t>
+  </si>
+  <si>
+    <t>5C751</t>
+  </si>
+  <si>
+    <t>5C766</t>
+  </si>
+  <si>
+    <t>5C778</t>
+  </si>
+  <si>
+    <t>5C789</t>
+  </si>
+  <si>
+    <t>5C79A</t>
+  </si>
+  <si>
+    <t>5C7AB</t>
+  </si>
+  <si>
+    <t>5C7BC</t>
+  </si>
+  <si>
+    <t>5C7CE</t>
+  </si>
+  <si>
+    <t>5C7E1</t>
+  </si>
+  <si>
+    <t>5C7F4</t>
+  </si>
+  <si>
+    <t>5C808</t>
+  </si>
+  <si>
+    <t>5C81A</t>
+  </si>
+  <si>
+    <t>5C82C</t>
+  </si>
+  <si>
+    <t>5C83E</t>
+  </si>
+  <si>
+    <t>5C84F</t>
+  </si>
+  <si>
+    <t>5C860</t>
+  </si>
+  <si>
+    <t>5C871</t>
+  </si>
+  <si>
+    <t>5C882</t>
+  </si>
+  <si>
+    <t>5C892</t>
+  </si>
+  <si>
+    <t>5C8B6</t>
+  </si>
+  <si>
+    <t>5C8C7</t>
+  </si>
+  <si>
+    <t>5C8D8</t>
+  </si>
+  <si>
+    <t>5C8E9</t>
+  </si>
+  <si>
+    <t>5C8FA</t>
+  </si>
+  <si>
+    <t>5C90B</t>
+  </si>
+  <si>
+    <t>5C91C</t>
+  </si>
+  <si>
+    <t>5C92C</t>
+  </si>
+  <si>
+    <t>5C93F</t>
+  </si>
+  <si>
+    <t>5C950</t>
+  </si>
+  <si>
+    <t>5C961</t>
+  </si>
+  <si>
+    <t>5C973</t>
+  </si>
+  <si>
+    <t>5C984</t>
+  </si>
+  <si>
+    <t>5C995</t>
+  </si>
+  <si>
+    <t>5C9B9</t>
+  </si>
+  <si>
+    <t>5C9CA</t>
+  </si>
+  <si>
+    <t>5C9DC</t>
+  </si>
+  <si>
+    <t>5C9EE</t>
+  </si>
+  <si>
+    <t>5C9FF</t>
+  </si>
+  <si>
+    <t>5CA11</t>
+  </si>
+  <si>
+    <t>5CA22</t>
+  </si>
+  <si>
+    <t>5CA33</t>
+  </si>
+  <si>
+    <t>5CA45</t>
+  </si>
+  <si>
+    <t>5CA56</t>
+  </si>
+  <si>
+    <t>5CA68</t>
+  </si>
+  <si>
+    <t>5CA78</t>
+  </si>
+  <si>
+    <t>5CA8A</t>
+  </si>
+  <si>
+    <t>5CA9B</t>
+  </si>
+  <si>
+    <t>5CAAC</t>
+  </si>
+  <si>
+    <t>5CABD</t>
+  </si>
+  <si>
+    <t>5CACE</t>
+  </si>
+  <si>
+    <t>5CADF</t>
+  </si>
+  <si>
+    <t>5CAF1</t>
+  </si>
+  <si>
+    <t>5CB03</t>
+  </si>
+  <si>
+    <t>5CB15</t>
+  </si>
+  <si>
+    <t>5CB27</t>
+  </si>
+  <si>
+    <t>5CB38</t>
+  </si>
+  <si>
+    <t>5CB4A</t>
+  </si>
+  <si>
+    <t>5CB5C</t>
+  </si>
+  <si>
+    <t>5CB6E</t>
+  </si>
+  <si>
+    <t>5CB80</t>
+  </si>
+  <si>
+    <t>5CBB6</t>
+  </si>
+  <si>
+    <t>5CBC7</t>
+  </si>
+  <si>
+    <t>5CBD9</t>
+  </si>
+  <si>
+    <t>5CBEB</t>
+  </si>
+  <si>
+    <t>5CBFC</t>
+  </si>
+  <si>
+    <t>5CC0E</t>
+  </si>
+  <si>
+    <t>5CC20</t>
+  </si>
+  <si>
+    <t>5CC31</t>
+  </si>
+  <si>
+    <t>5CC43</t>
+  </si>
+  <si>
+    <t>5CC57</t>
+  </si>
+  <si>
+    <t>5CC69</t>
+  </si>
+  <si>
+    <t>5CC7A</t>
+  </si>
+  <si>
+    <t>5CC8B</t>
+  </si>
+  <si>
+    <t>5CC9C</t>
+  </si>
+  <si>
+    <t>5CCAF</t>
+  </si>
+  <si>
+    <t>5CCC0</t>
+  </si>
+  <si>
+    <t>5CCD2</t>
+  </si>
+  <si>
+    <t>5CCE3</t>
+  </si>
+  <si>
+    <t>5CCF6</t>
+  </si>
+  <si>
+    <t>5CD07</t>
+  </si>
+  <si>
+    <t>5CD18</t>
+  </si>
+  <si>
+    <t>5CD2A</t>
+  </si>
+  <si>
+    <t>5CD3B</t>
+  </si>
+  <si>
+    <t>5CD4D</t>
+  </si>
+  <si>
+    <t>5CD5E</t>
+  </si>
+  <si>
+    <t>5CD6F</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪ときめく むねは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪かたおもいなの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪こくはく します</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪『スキでした♥』</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪ひとみを とじて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ♪なげキッス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪あなたの ココロ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ♪ドリーミン♥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪ドキドキしちゃう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪ピンクの ルージュは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪ステキな よかん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ♪ささやきたいの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪『マイダーリン♥』</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪くちづけ したら</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪フォーリン ラブ♥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪こいの てんしを</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ♪だきしめたい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪アナタに むちゅう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪ふたりの こいは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪ママには ないしょ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪そっと つぶやく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪『ごめんなさい……』</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪アナタと ふたり</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ♪ゆめの くに</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪はじめての こい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ♪わすれない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪ゆめみる しょうじょ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪しろい チャペルは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪ふたりの ひみつ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪ほほえみ ながら</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪『じゃあ またね♥』</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ♪チーズケーキで</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ♪さよならね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪キミの そのゆめ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ♪しんじてる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪つれて いってね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪あかい マントは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪せいぎの ちかい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪いまだ! ぶつけろ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪『サンダガ パンチ!』</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪さあ クリスタルで</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ♪へんしんだ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪だいかいじゅうを</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ♪なぎたおせ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪ゆくぞ ボクらの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪もえる ゆうひは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪しょうりの あかし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪だれかが よんでる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪『ブリザガ キック!』</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪あいと ゆうきで</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ♪とんでゆけ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪うちゅうの へいわ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ♪まもりぬけ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪せいぎの みかた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪ひかる つるぎは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪ゆうしゃの しるし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪あくの てさきに</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪『ファイガ アタック!』</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪ゆうじょう パワーで</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ♪がったいだ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪せいぎの いかりを</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ♪つらぬくぞ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪ぎんが ヒーロー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪するどい ツメは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪じゃあくな こころ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪くらえ! ひっさつ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪『ケアルガ ビーム!』</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪あつい ちしおで</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ♪ひを つけろ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪きょだいな てきを</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ♪ゆるすまじ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪むてきの せんし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪おやじの ふねは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪きたぐに そだち</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪りょうしの うたは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪『エンヤコラ〜』</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪ぎりと にんじょで</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ♪ナニワぶし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪とわの きずなを</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ♪のみほした</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪みなとの まちさ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪ネオンの まちは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪みれんが つのる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪うみが ないてる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪『ハ〜 ヨサコイ』</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪よるの さかばで</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ♪のむ さけは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪ごぞう ろっぷを</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ♪なぐさめる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪それが おとこの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪おきの カモメは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪ヒュルリラ ヒュルリ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪てがみに かいた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪『おふくろさん……』</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪さけと なみだで</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ♪ひとりたび</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪おんな ごころを</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ♪うらみます</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪えんかみちだよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪しょせん おとこは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪さむさが しみる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪つたえて おくれ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ♪この おもい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪いっそ このまま</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ♪じごくまで</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪おいらの いのち</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ♪くれてやる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪よかぜが つらい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪おれの ハートは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪ダイナマイ だぜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪さけび つづけろ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪『オー イエー!』</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪だきあう たびに</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ♪アイラブユー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪こんや おまえを</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ♪ホールド オン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪キスミー ベイベー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ♪ミッドナイトは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪オー ロンリネス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪なんども いうぜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪『フォーエバー』</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪オールナイトで</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪アイウォンチュー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪ブロークンハートを</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ♪すてちまえ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪ワンウェイ ラブさ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪ロックンロールは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪こころの さけび</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪おまえの ひとみに</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪『カモン トゥナイト』</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪ハイな ビートで</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ♪ダンシング</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪おとなの ルール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ♪ぶっこわす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪セクシー エンジェル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪こいの レースは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪ファイナル ラップ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪つきに ほえろよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ♪『オー ジーザス!』</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪ノンストップで</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ♪ヒートアップ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪ブルーな きもち</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ♪ノックアウト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ♪スイート ハニー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ♪オクターブ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ♪オクタ〜ブ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ♪オクタ〜ブ〜</t>
+  </si>
+  <si>
+    <t>LINE</t>
+  </si>
+  <si>
+    <t>The heart beating fast</t>
+  </si>
+  <si>
+    <t>Enka's Essence</t>
+  </si>
+  <si>
+    <t>Hero's Spirit</t>
+  </si>
+  <si>
+    <t>TRIM</t>
+  </si>
+  <si>
+    <t>"Being in love♥"</t>
+  </si>
+  <si>
+    <t>Declaring your love</t>
+  </si>
+  <si>
+    <t>Close your eyes</t>
+  </si>
+  <si>
+    <t>Kiss on the lips</t>
+  </si>
+  <si>
+    <t>Your heart</t>
+  </si>
+  <si>
+    <t>Dreamin' ♥</t>
+  </si>
+  <si>
+    <t>Being ecstatic</t>
+  </si>
+  <si>
+    <t>Pink lipstick</t>
+  </si>
+  <si>
+    <t>Good presentiment</t>
+  </si>
+  <si>
+    <t>Whispers of</t>
+  </si>
+  <si>
+    <t>Unrequited love of</t>
+  </si>
+  <si>
+    <t>"My Darling ♥"</t>
+  </si>
+  <si>
+    <t>If you kiss me</t>
+  </si>
+  <si>
+    <t>Foreign Love♥</t>
+  </si>
+  <si>
+    <t>The angel of love.</t>
+  </si>
+  <si>
+    <t>To hold someone tight</t>
+  </si>
+  <si>
+    <t>Crazy about you</t>
+  </si>
+  <si>
+    <t>Two lovers</t>
+  </si>
+  <si>
+    <t>Don't tell your mom.</t>
+  </si>
+  <si>
+    <t>Murmuring gently</t>
+  </si>
+  <si>
+    <t>"I'm sorry…"</t>
+  </si>
+  <si>
+    <t>Just you and me.</t>
+  </si>
+  <si>
+    <t>A dreamland</t>
+  </si>
+  <si>
+    <t>Love for the first time</t>
+  </si>
+  <si>
+    <t>I'll never forget</t>
+  </si>
+  <si>
+    <t>Dreaming girl</t>
+  </si>
+  <si>
+    <t>A white chapel</t>
+  </si>
+  <si>
+    <t>A couple's secret</t>
+  </si>
+  <si>
+    <t>With a smile</t>
+  </si>
+  <si>
+    <t>"See you later♥"</t>
+  </si>
+  <si>
+    <t>With cheesecake</t>
+  </si>
+  <si>
+    <t>Farewell</t>
+  </si>
+  <si>
+    <t>That dream of yours</t>
+  </si>
+  <si>
+    <t>Have faith</t>
+  </si>
+  <si>
+    <t>Take me with you</t>
+  </si>
+  <si>
+    <t>A red cape</t>
+  </si>
+  <si>
+    <t>GENRE</t>
+  </si>
+  <si>
+    <t>Idol</t>
+  </si>
+  <si>
+    <t>Pledge of justice</t>
+  </si>
+  <si>
+    <t>Wait! Strike!</t>
+  </si>
+  <si>
+    <t>"Thundaga Punch!"</t>
+  </si>
+  <si>
+    <t>With the crystals</t>
+  </si>
+  <si>
+    <t>Transformation!</t>
+  </si>
+  <si>
+    <t>Giant Kaiju</t>
+  </si>
+  <si>
+    <t>Kaiju = Strange monster</t>
+  </si>
+  <si>
+    <t>Knock'em down</t>
+  </si>
+  <si>
+    <t>Here we go</t>
+  </si>
+  <si>
+    <t>The burning sunset</t>
+  </si>
+  <si>
+    <t>A sign of victory</t>
+  </si>
+  <si>
+    <t>Someone's calling</t>
+  </si>
+  <si>
+    <t>"Blizzaga Kick!"</t>
+  </si>
+  <si>
+    <t>Love and courage</t>
+  </si>
+  <si>
+    <t>Fly away!</t>
+  </si>
+  <si>
+    <t>Peace in the universe</t>
+  </si>
+  <si>
+    <t>Protect at all cost</t>
+  </si>
+  <si>
+    <t>Knight in shining armor</t>
+  </si>
+  <si>
+    <t>A shining sword</t>
+  </si>
+  <si>
+    <t>Mark of the brave</t>
+  </si>
+  <si>
+    <t>Evil minions</t>
+  </si>
+  <si>
+    <t>"Firaga Attack!"</t>
+  </si>
+  <si>
+    <t>The power of friendship</t>
+  </si>
+  <si>
+    <t>"Fu....sion-HAAA!"</t>
+  </si>
+  <si>
+    <t>Dragonball ref (Gattai refers to the fused state, the catchphrase in Japanese is borrowed from the English fusion: フュージョン)</t>
+  </si>
+  <si>
+    <t>The wrath of the righteous</t>
+  </si>
+  <si>
+    <t>Stick to your principles</t>
+  </si>
+  <si>
+    <t>Hero of the galaxy</t>
+  </si>
+  <si>
+    <t>Sharp claws</t>
+  </si>
+  <si>
+    <t>Evil mind</t>
+  </si>
+  <si>
+    <t>Eat that! Deadly blow!</t>
+  </si>
+  <si>
+    <t>"Curaga Beam!"</t>
+  </si>
+  <si>
+    <t>In hot blood</t>
+  </si>
+  <si>
+    <t>Get the fire!</t>
+  </si>
+  <si>
+    <t>A giant enemy</t>
+  </si>
+  <si>
+    <t>Unforgivable</t>
+  </si>
+  <si>
+    <t>Hero</t>
+  </si>
+  <si>
+    <t>Invincible warrior</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Enka</t>
+  </si>
+  <si>
+    <t>On the race track</t>
+  </si>
+  <si>
+    <t>My father's boat</t>
+  </si>
+  <si>
+    <t>Growing up in the North of Japan</t>
+  </si>
+  <si>
+    <t>The Fisherman's Song</t>
+  </si>
+  <si>
+    <t>"Enyakora"</t>
+  </si>
+  <si>
+    <t>https://www.worldfolksong.com/songbook/japan/enyakora.html</t>
+  </si>
+  <si>
+    <t>Decency and empathy</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/R%C5%8Dkyoku</t>
+  </si>
+  <si>
+    <t>A sob story</t>
+  </si>
+  <si>
+    <t>Everlasting bond</t>
+  </si>
+  <si>
+    <t>Drinking to the last drop</t>
+  </si>
+  <si>
+    <t>Harbor city</t>
+  </si>
+  <si>
+    <t>Neon lights</t>
+  </si>
+  <si>
+    <t>Affection growing stronger</t>
+  </si>
+  <si>
+    <t>"Ah…Yosakoi"</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Yosakoi</t>
+  </si>
+  <si>
+    <t>At night, in a bar</t>
+  </si>
+  <si>
+    <t>The ocean is gone</t>
+  </si>
+  <si>
+    <t>Drinking sake</t>
+  </si>
+  <si>
+    <t>https://www.weblio.jp/content/%E3%81%94%E3%81%9E%E3%81%86%E3%82%8D%E3%81%A3%E3%81%B7</t>
+  </si>
+  <si>
+    <t>Heart and soul</t>
+  </si>
+  <si>
+    <t>Comforting</t>
+  </si>
+  <si>
+    <t>That's what men do</t>
+  </si>
+  <si>
+    <t>Seagulls off the coast</t>
+  </si>
+  <si>
+    <t>Hyururi hyururi lala</t>
+  </si>
+  <si>
+    <t>From the lyrics of the song Etto Tsubame https://helloprolyrics.fandom.com/wiki/Ettou_Tsubame_(Nakazawa_Yuko)</t>
+  </si>
+  <si>
+    <t>Writing a letter</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Shinichi_Mori</t>
+  </si>
+  <si>
+    <t>"My Dear Mother…"</t>
+  </si>
+  <si>
+    <t>Crying over sake</t>
+  </si>
+  <si>
+    <t>Traveling alone</t>
+  </si>
+  <si>
+    <t>With a woman's heart</t>
+  </si>
+  <si>
+    <t>A grudge against</t>
+  </si>
+  <si>
+    <t>The enka way</t>
+  </si>
+  <si>
+    <t>After all, men are</t>
+  </si>
+  <si>
+    <t>The coldness stings</t>
+  </si>
+  <si>
+    <t>Pass on a message</t>
+  </si>
+  <si>
+    <t>This thought</t>
+  </si>
+  <si>
+    <t>Just leave it as it is</t>
+  </si>
+  <si>
+    <t>To hell with it!</t>
+  </si>
+  <si>
+    <t>Our lives</t>
+  </si>
+  <si>
+    <t>Do a favor</t>
+  </si>
+  <si>
+    <t>The night breeze is cold</t>
+  </si>
+  <si>
+    <t>My heart is</t>
+  </si>
+  <si>
+    <t>Dynami</t>
+  </si>
+  <si>
+    <t>Keep shouting</t>
+  </si>
+  <si>
+    <t>"Oh Yeah!"</t>
+  </si>
+  <si>
+    <t>Every time we hug</t>
+  </si>
+  <si>
+    <t>I love you</t>
+  </si>
+  <si>
+    <t>Hold on</t>
+  </si>
+  <si>
+    <t>Tonight with you</t>
+  </si>
+  <si>
+    <t>Kiss me baby</t>
+  </si>
+  <si>
+    <t>Midnight</t>
+  </si>
+  <si>
+    <t>Oh loneliness</t>
+  </si>
+  <si>
+    <t>I've said it many times</t>
+  </si>
+  <si>
+    <t>"Forever"</t>
+  </si>
+  <si>
+    <t>All night</t>
+  </si>
+  <si>
+    <t>I want you</t>
+  </si>
+  <si>
+    <t>Broken hearts</t>
+  </si>
+  <si>
+    <t>To abandon</t>
+  </si>
+  <si>
+    <t>One way love</t>
+  </si>
+  <si>
+    <t>Rock &amp; roll is</t>
+  </si>
+  <si>
+    <t>A shout from the heart</t>
+  </si>
+  <si>
+    <t>In your eyes</t>
+  </si>
+  <si>
+    <t>"Come on tonight"</t>
+  </si>
+  <si>
+    <t>High beats</t>
+  </si>
+  <si>
+    <t>Dancing</t>
+  </si>
+  <si>
+    <t>Adult authority</t>
+  </si>
+  <si>
+    <t>Wreck</t>
+  </si>
+  <si>
+    <t>Sexy angels</t>
+  </si>
+  <si>
+    <t>This race is</t>
+  </si>
+  <si>
+    <t>Final lap</t>
+  </si>
+  <si>
+    <t>Howl at the moon</t>
+  </si>
+  <si>
+    <t>"Oh Jesus!"</t>
+  </si>
+  <si>
+    <t>Non-stop</t>
+  </si>
+  <si>
+    <t>Heat up</t>
+  </si>
+  <si>
+    <t>Feeling blue</t>
+  </si>
+  <si>
+    <t>Knock out</t>
+  </si>
+  <si>
+    <t>Sweet honey</t>
+  </si>
+  <si>
+    <t>Theme song race: 1-3 checkpoints 1st</t>
+  </si>
+  <si>
+    <t>Theme song race: 4-7 checkpoints 1st</t>
+  </si>
+  <si>
+    <t>Theme song race: 8+ checkpoints 1st</t>
+  </si>
+  <si>
+    <t>Gold Shrike Award</t>
+  </si>
+  <si>
+    <t>Silver Shrike Award</t>
+  </si>
+  <si>
+    <t>Bronze Shrike Award</t>
+  </si>
+  <si>
+    <t>Given by Sabugorō after the race if one enka line is in the song</t>
+  </si>
+  <si>
+    <t>Given by Ebis after the race if one rock line is in the song</t>
+  </si>
+  <si>
+    <t>Given by Utauda after the race one hero line is in the song</t>
+  </si>
+  <si>
+    <t>Give by Kuriko after the race if one idol line is in the song</t>
   </si>
 </sst>
 </file>
@@ -2403,10 +3793,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q129"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:R129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P96" sqref="P96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2414,15 +3805,17 @@
     <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="37.125" customWidth="1"/>
+    <col min="9" max="9" width="4.875" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.125" customWidth="1"/>
     <col min="15" max="15" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5" customWidth="1"/>
+    <col min="18" max="18" width="50.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>448</v>
       </c>
@@ -2456,11 +3849,11 @@
       <c r="O1" t="s">
         <v>579</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2492,18 +3885,18 @@
         <v>619</v>
       </c>
       <c r="N2">
-        <f>IF(L2=B2,1,0)</f>
+        <f t="shared" ref="N2:N33" si="0">IF(L2=B2,1,0)</f>
         <v>1</v>
       </c>
       <c r="O2" t="s">
         <v>7</v>
       </c>
-      <c r="P2">
-        <f>LEN(O2)</f>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q33" si="1">LEN(O2)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2535,18 +3928,18 @@
         <v>616</v>
       </c>
       <c r="N3">
-        <f>IF(L3=B3,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O3" t="s">
         <v>11</v>
       </c>
-      <c r="P3">
-        <f>LEN(O3)</f>
+      <c r="Q3">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2578,18 +3971,18 @@
         <v>614</v>
       </c>
       <c r="N4">
-        <f>IF(L4=B4,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O4" t="s">
         <v>15</v>
       </c>
-      <c r="P4">
-        <f>LEN(O4)</f>
+      <c r="Q4">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2621,18 +4014,18 @@
         <v>620</v>
       </c>
       <c r="N5">
-        <f>IF(L5=B5,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O5" t="s">
         <v>19</v>
       </c>
-      <c r="P5">
-        <f>LEN(O5)</f>
+      <c r="Q5">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2664,18 +4057,18 @@
         <v>622</v>
       </c>
       <c r="N6">
-        <f>IF(L6=B6,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O6" t="s">
         <v>23</v>
       </c>
-      <c r="P6">
-        <f>LEN(O6)</f>
+      <c r="Q6">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2707,18 +4100,18 @@
         <v>622</v>
       </c>
       <c r="N7">
-        <f>IF(L7=B7,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
       </c>
-      <c r="P7">
-        <f>LEN(O7)</f>
+      <c r="Q7">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2750,18 +4143,18 @@
         <v>618</v>
       </c>
       <c r="N8">
-        <f>IF(L8=B8,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O8" t="s">
         <v>30</v>
       </c>
-      <c r="P8">
-        <f>LEN(O8)</f>
+      <c r="Q8">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2796,18 +4189,18 @@
         <v>620</v>
       </c>
       <c r="N9">
-        <f>IF(L9=B9,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O9" t="s">
         <v>581</v>
       </c>
-      <c r="P9">
-        <f>LEN(O9)</f>
+      <c r="Q9">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -2839,18 +4232,18 @@
         <v>619</v>
       </c>
       <c r="N10">
-        <f>IF(L10=B10,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O10" t="s">
         <v>39</v>
       </c>
-      <c r="P10">
-        <f>LEN(O10)</f>
+      <c r="Q10">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2882,18 +4275,18 @@
         <v>620</v>
       </c>
       <c r="N11">
-        <f>IF(L11=B11,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
       </c>
-      <c r="P11">
-        <f>LEN(O11)</f>
+      <c r="Q11">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2925,18 +4318,18 @@
         <v>614</v>
       </c>
       <c r="N12">
-        <f>IF(L12=B12,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O12" t="s">
         <v>48</v>
       </c>
-      <c r="P12">
-        <f>LEN(O12)</f>
+      <c r="Q12">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -2968,18 +4361,18 @@
         <v>620</v>
       </c>
       <c r="N13">
-        <f>IF(L13=B13,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O13" t="s">
         <v>51</v>
       </c>
-      <c r="P13">
-        <f>LEN(O13)</f>
+      <c r="Q13">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3011,18 +4404,18 @@
         <v>619</v>
       </c>
       <c r="N14">
-        <f>IF(L14=B14,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O14" t="s">
         <v>54</v>
       </c>
-      <c r="P14">
-        <f>LEN(O14)</f>
+      <c r="Q14">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3054,18 +4447,18 @@
         <v>618</v>
       </c>
       <c r="N15">
-        <f>IF(L15=B15,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O15" t="s">
         <v>57</v>
       </c>
-      <c r="P15">
-        <f>LEN(O15)</f>
+      <c r="Q15">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3097,18 +4490,18 @@
         <v>618</v>
       </c>
       <c r="N16">
-        <f>IF(L16=B16,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O16" t="s">
         <v>61</v>
       </c>
-      <c r="P16">
-        <f>LEN(O16)</f>
+      <c r="Q16">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3140,18 +4533,18 @@
         <v>622</v>
       </c>
       <c r="N17">
-        <f>IF(L17=B17,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O17" t="s">
         <v>64</v>
       </c>
-      <c r="P17">
-        <f>LEN(O17)</f>
+      <c r="Q17">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3183,18 +4576,18 @@
         <v>619</v>
       </c>
       <c r="N18">
-        <f>IF(L18=B18,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O18" t="s">
         <v>68</v>
       </c>
-      <c r="P18">
-        <f>LEN(O18)</f>
+      <c r="Q18">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
@@ -3226,18 +4619,18 @@
         <v>614</v>
       </c>
       <c r="N19">
-        <f>IF(L19=B19,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O19" t="s">
         <v>582</v>
       </c>
-      <c r="P19">
-        <f>LEN(O19)</f>
+      <c r="Q19">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -3269,18 +4662,18 @@
         <v>618</v>
       </c>
       <c r="N20">
-        <f>IF(L20=B20,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O20" t="s">
         <v>75</v>
       </c>
-      <c r="P20">
-        <f>LEN(O20)</f>
+      <c r="Q20">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>22</v>
       </c>
@@ -3312,18 +4705,18 @@
         <v>622</v>
       </c>
       <c r="N21">
-        <f>IF(L21=B21,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O21" t="s">
         <v>78</v>
       </c>
-      <c r="P21">
-        <f>LEN(O21)</f>
+      <c r="Q21">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23</v>
       </c>
@@ -3358,18 +4751,18 @@
         <v>620</v>
       </c>
       <c r="N22">
-        <f>IF(L22=B22,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O22" t="s">
         <v>80</v>
       </c>
-      <c r="P22">
-        <f>LEN(O22)</f>
+      <c r="Q22">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
@@ -3401,18 +4794,18 @@
         <v>616</v>
       </c>
       <c r="N23">
-        <f>IF(L23=B23,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O23" t="s">
         <v>84</v>
       </c>
-      <c r="P23">
-        <f>LEN(O23)</f>
+      <c r="Q23">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>25</v>
       </c>
@@ -3444,18 +4837,21 @@
         <v>614</v>
       </c>
       <c r="N24">
-        <f>IF(L24=B24,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O24" t="s">
         <v>583</v>
       </c>
-      <c r="P24">
-        <f>LEN(O24)</f>
+      <c r="P24" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>26</v>
       </c>
@@ -3487,18 +4883,18 @@
         <v>618</v>
       </c>
       <c r="N25">
-        <f>IF(L25=B25,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O25" t="s">
         <v>584</v>
       </c>
-      <c r="P25">
-        <f>LEN(O25)</f>
+      <c r="Q25">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>27</v>
       </c>
@@ -3530,18 +4926,18 @@
         <v>622</v>
       </c>
       <c r="N26">
-        <f>IF(L26=B26,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O26" t="s">
         <v>95</v>
       </c>
-      <c r="P26">
-        <f>LEN(O26)</f>
+      <c r="Q26">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>28</v>
       </c>
@@ -3573,18 +4969,18 @@
         <v>620</v>
       </c>
       <c r="N27">
-        <f>IF(L27=B27,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O27" t="s">
         <v>97</v>
       </c>
-      <c r="P27">
-        <f>LEN(O27)</f>
+      <c r="Q27">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>29</v>
       </c>
@@ -3616,18 +5012,18 @@
         <v>616</v>
       </c>
       <c r="N28">
-        <f>IF(L28=B28,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O28" t="s">
         <v>585</v>
       </c>
-      <c r="P28">
-        <f>LEN(O28)</f>
+      <c r="Q28">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>31</v>
       </c>
@@ -3659,21 +5055,21 @@
         <v>622</v>
       </c>
       <c r="N29">
-        <f>IF(L29=B29,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O29" t="s">
         <v>595</v>
       </c>
-      <c r="P29">
-        <f>LEN(O29)</f>
+      <c r="Q29">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32</v>
       </c>
@@ -3705,21 +5101,21 @@
         <v>618</v>
       </c>
       <c r="N30">
-        <f>IF(L30=B30,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O30" t="s">
         <v>109</v>
       </c>
-      <c r="P30">
-        <f>LEN(O30)</f>
+      <c r="Q30">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>33</v>
       </c>
@@ -3751,21 +5147,21 @@
         <v>619</v>
       </c>
       <c r="N31">
-        <f>IF(L31=B31,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O31" t="s">
         <v>596</v>
       </c>
-      <c r="P31">
-        <f>LEN(O31)</f>
+      <c r="Q31">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>35</v>
       </c>
@@ -3797,18 +5193,18 @@
         <v>619</v>
       </c>
       <c r="N32">
-        <f>IF(L32=B32,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O32" t="s">
         <v>586</v>
       </c>
-      <c r="P32">
-        <f>LEN(O32)</f>
+      <c r="Q32">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>36</v>
       </c>
@@ -3840,18 +5236,18 @@
         <v>618</v>
       </c>
       <c r="N33">
-        <f>IF(L33=B33,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O33" t="s">
         <v>587</v>
       </c>
-      <c r="P33">
-        <f>LEN(O33)</f>
+      <c r="Q33">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>38</v>
       </c>
@@ -3883,18 +5279,18 @@
         <v>622</v>
       </c>
       <c r="N34">
-        <f>IF(L34=B34,1,0)</f>
+        <f t="shared" ref="N34:N65" si="2">IF(L34=B34,1,0)</f>
         <v>1</v>
       </c>
       <c r="O34" t="s">
         <v>122</v>
       </c>
-      <c r="P34">
-        <f>LEN(O34)</f>
+      <c r="Q34">
+        <f t="shared" ref="Q34:Q65" si="3">LEN(O34)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>39</v>
       </c>
@@ -3926,21 +5322,21 @@
         <v>614</v>
       </c>
       <c r="N35">
-        <f>IF(L35=B35,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O35" t="s">
         <v>125</v>
       </c>
-      <c r="P35">
-        <f>LEN(O35)</f>
+      <c r="Q35">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>40</v>
       </c>
@@ -3975,21 +5371,21 @@
         <v>619</v>
       </c>
       <c r="N36">
-        <f>IF(L36=B36,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O36" t="s">
         <v>128</v>
       </c>
-      <c r="P36">
-        <f>LEN(O36)</f>
+      <c r="Q36">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>41</v>
       </c>
@@ -4021,18 +5417,18 @@
         <v>619</v>
       </c>
       <c r="N37">
-        <f>IF(L37=B37,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O37" t="s">
         <v>590</v>
       </c>
-      <c r="P37">
-        <f>LEN(O37)</f>
+      <c r="Q37">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>42</v>
       </c>
@@ -4067,18 +5463,18 @@
         <v>619</v>
       </c>
       <c r="N38">
-        <f>IF(L38=B38,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O38" t="s">
         <v>591</v>
       </c>
-      <c r="P38">
-        <f>LEN(O38)</f>
+      <c r="Q38">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>43</v>
       </c>
@@ -4110,18 +5506,18 @@
         <v>619</v>
       </c>
       <c r="N39">
-        <f>IF(L39=B39,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O39" t="s">
         <v>139</v>
       </c>
-      <c r="P39">
-        <f>LEN(O39)</f>
+      <c r="Q39">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>44</v>
       </c>
@@ -4156,18 +5552,18 @@
         <v>614</v>
       </c>
       <c r="N40">
-        <f>IF(L40=B40,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O40" t="s">
         <v>592</v>
       </c>
-      <c r="P40">
-        <f>LEN(O40)</f>
+      <c r="Q40">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>45</v>
       </c>
@@ -4199,21 +5595,21 @@
         <v>618</v>
       </c>
       <c r="N41">
-        <f>IF(L41=B41,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O41" t="s">
         <v>600</v>
       </c>
-      <c r="P41">
-        <f>LEN(O41)</f>
+      <c r="Q41">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="R41" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>46</v>
       </c>
@@ -4245,21 +5641,21 @@
         <v>614</v>
       </c>
       <c r="N42">
-        <f>IF(L42=B42,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O42" t="s">
         <v>150</v>
       </c>
-      <c r="P42">
-        <f>LEN(O42)</f>
+      <c r="Q42">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>47</v>
       </c>
@@ -4291,21 +5687,21 @@
         <v>622</v>
       </c>
       <c r="N43">
-        <f>IF(L43=B43,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O43" t="s">
         <v>154</v>
       </c>
-      <c r="P43">
-        <f>LEN(O43)</f>
+      <c r="Q43">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>48</v>
       </c>
@@ -4340,21 +5736,21 @@
         <v>620</v>
       </c>
       <c r="N44">
-        <f>IF(L44=B44,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>158</v>
       </c>
-      <c r="P44">
-        <f>LEN(O44)</f>
+      <c r="Q44">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>49</v>
       </c>
@@ -4386,18 +5782,18 @@
         <v>622</v>
       </c>
       <c r="N45">
-        <f>IF(L45=B45,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O45" t="s">
         <v>161</v>
       </c>
-      <c r="P45">
-        <f>LEN(O45)</f>
+      <c r="Q45">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>51</v>
       </c>
@@ -4432,18 +5828,18 @@
         <v>618</v>
       </c>
       <c r="N46">
-        <f>IF(L46=B46,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O46" t="s">
         <v>164</v>
       </c>
-      <c r="P46">
-        <f>LEN(O46)</f>
+      <c r="Q46">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>52</v>
       </c>
@@ -4478,18 +5874,18 @@
         <v>619</v>
       </c>
       <c r="N47">
-        <f>IF(L47=B47,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O47" t="s">
         <v>168</v>
       </c>
-      <c r="P47">
-        <f>LEN(O47)</f>
+      <c r="Q47">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>53</v>
       </c>
@@ -4524,18 +5920,18 @@
         <v>620</v>
       </c>
       <c r="N48">
-        <f>IF(L48=B48,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O48" t="s">
         <v>171</v>
       </c>
-      <c r="P48">
-        <f>LEN(O48)</f>
+      <c r="Q48">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>54</v>
       </c>
@@ -4570,18 +5966,18 @@
         <v>622</v>
       </c>
       <c r="N49">
-        <f>IF(L49=B49,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O49" t="s">
         <v>174</v>
       </c>
-      <c r="P49">
-        <f>LEN(O49)</f>
+      <c r="Q49">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>55</v>
       </c>
@@ -4616,18 +6012,18 @@
         <v>619</v>
       </c>
       <c r="N50">
-        <f>IF(L50=B50,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O50" t="s">
         <v>177</v>
       </c>
-      <c r="P50">
-        <f>LEN(O50)</f>
+      <c r="Q50">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>56</v>
       </c>
@@ -4662,18 +6058,18 @@
         <v>618</v>
       </c>
       <c r="N51">
-        <f>IF(L51=B51,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O51" t="s">
         <v>179</v>
       </c>
-      <c r="P51">
-        <f>LEN(O51)</f>
+      <c r="Q51">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>57</v>
       </c>
@@ -4708,18 +6104,18 @@
         <v>618</v>
       </c>
       <c r="N52">
-        <f>IF(L52=B52,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O52" t="s">
         <v>183</v>
       </c>
-      <c r="P52">
-        <f>LEN(O52)</f>
+      <c r="Q52">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>58</v>
       </c>
@@ -4754,18 +6150,18 @@
         <v>622</v>
       </c>
       <c r="N53">
-        <f>IF(L53=B53,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O53" t="s">
         <v>186</v>
       </c>
-      <c r="P53">
-        <f>LEN(O53)</f>
+      <c r="Q53">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>60</v>
       </c>
@@ -4797,18 +6193,18 @@
         <v>618</v>
       </c>
       <c r="N54">
-        <f>IF(L54=B54,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O54" t="s">
         <v>188</v>
       </c>
-      <c r="P54">
-        <f>LEN(O54)</f>
+      <c r="Q54">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>61</v>
       </c>
@@ -4840,18 +6236,18 @@
         <v>618</v>
       </c>
       <c r="N55">
-        <f>IF(L55=B55,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O55" t="s">
         <v>192</v>
       </c>
-      <c r="P55">
-        <f>LEN(O55)</f>
+      <c r="Q55">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>62</v>
       </c>
@@ -4883,18 +6279,18 @@
         <v>614</v>
       </c>
       <c r="N56">
-        <f>IF(L56=B56,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O56" t="s">
         <v>194</v>
       </c>
-      <c r="P56">
-        <f>LEN(O56)</f>
+      <c r="Q56">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>63</v>
       </c>
@@ -4926,21 +6322,21 @@
         <v>614</v>
       </c>
       <c r="N57">
-        <f>IF(L57=B57,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O57" t="s">
         <v>603</v>
       </c>
-      <c r="P57">
-        <f>LEN(O57)</f>
+      <c r="Q57">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>64</v>
       </c>
@@ -4972,21 +6368,21 @@
         <v>622</v>
       </c>
       <c r="N58">
-        <f>IF(L58=B58,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O58" t="s">
         <v>602</v>
       </c>
-      <c r="P58">
-        <f>LEN(O58)</f>
+      <c r="Q58">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>66</v>
       </c>
@@ -5018,18 +6414,18 @@
         <v>615</v>
       </c>
       <c r="N59">
-        <f>IF(L59=B59,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O59" t="s">
         <v>203</v>
       </c>
-      <c r="P59">
-        <f>LEN(O59)</f>
+      <c r="Q59">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>67</v>
       </c>
@@ -5061,18 +6457,18 @@
         <v>618</v>
       </c>
       <c r="N60">
-        <f>IF(L60=B60,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O60" t="s">
         <v>206</v>
       </c>
-      <c r="P60">
-        <f>LEN(O60)</f>
+      <c r="Q60">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>68</v>
       </c>
@@ -5104,18 +6500,21 @@
         <v>615</v>
       </c>
       <c r="N61">
-        <f>IF(L61=B61,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O61" t="s">
         <v>209</v>
       </c>
-      <c r="P61">
-        <f>LEN(O61)</f>
+      <c r="P61" t="s">
+        <v>1041</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>69</v>
       </c>
@@ -5147,18 +6546,21 @@
         <v>614</v>
       </c>
       <c r="N62">
-        <f>IF(L62=B62,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O62" t="s">
         <v>212</v>
       </c>
-      <c r="P62">
-        <f>LEN(O62)</f>
+      <c r="P62" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>70</v>
       </c>
@@ -5190,18 +6592,18 @@
         <v>619</v>
       </c>
       <c r="N63">
-        <f>IF(L63=B63,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O63" t="s">
         <v>215</v>
       </c>
-      <c r="P63">
-        <f>LEN(O63)</f>
+      <c r="Q63">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>71</v>
       </c>
@@ -5233,18 +6635,18 @@
         <v>620</v>
       </c>
       <c r="N64">
-        <f>IF(L64=B64,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O64" t="s">
         <v>218</v>
       </c>
-      <c r="P64">
-        <f>LEN(O64)</f>
+      <c r="Q64">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>72</v>
       </c>
@@ -5276,18 +6678,18 @@
         <v>619</v>
       </c>
       <c r="N65">
-        <f>IF(L65=B65,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O65" t="s">
         <v>222</v>
       </c>
-      <c r="P65">
-        <f>LEN(O65)</f>
+      <c r="Q65">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>73</v>
       </c>
@@ -5319,18 +6721,18 @@
         <v>619</v>
       </c>
       <c r="N66">
-        <f>IF(L66=B66,1,0)</f>
+        <f t="shared" ref="N66:N97" si="4">IF(L66=B66,1,0)</f>
         <v>1</v>
       </c>
       <c r="O66" t="s">
         <v>225</v>
       </c>
-      <c r="P66">
-        <f>LEN(O66)</f>
+      <c r="Q66">
+        <f t="shared" ref="Q66:Q97" si="5">LEN(O66)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>74</v>
       </c>
@@ -5362,18 +6764,21 @@
         <v>615</v>
       </c>
       <c r="N67">
-        <f>IF(L67=B67,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O67" t="s">
         <v>228</v>
       </c>
-      <c r="P67">
-        <f>LEN(O67)</f>
+      <c r="P67" t="s">
+        <v>1041</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>75</v>
       </c>
@@ -5405,18 +6810,18 @@
         <v>622</v>
       </c>
       <c r="N68">
-        <f>IF(L68=B68,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O68" t="s">
         <v>231</v>
       </c>
-      <c r="P68">
-        <f>LEN(O68)</f>
+      <c r="Q68">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>77</v>
       </c>
@@ -5448,21 +6853,21 @@
         <v>619</v>
       </c>
       <c r="N69">
-        <f>IF(L69=B69,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O69" t="s">
         <v>234</v>
       </c>
-      <c r="P69">
-        <f>LEN(O69)</f>
+      <c r="Q69">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="R69" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>78</v>
       </c>
@@ -5494,21 +6899,21 @@
         <v>619</v>
       </c>
       <c r="N70">
-        <f>IF(L70=B70,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O70" t="s">
         <v>605</v>
       </c>
-      <c r="P70">
-        <f>LEN(O70)</f>
+      <c r="Q70">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="R70" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>79</v>
       </c>
@@ -5540,18 +6945,18 @@
         <v>619</v>
       </c>
       <c r="N71">
-        <f>IF(L71=B71,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O71" t="s">
         <v>606</v>
       </c>
-      <c r="P71">
-        <f>LEN(O71)</f>
+      <c r="Q71">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>81</v>
       </c>
@@ -5586,18 +6991,18 @@
         <v>616</v>
       </c>
       <c r="N72">
-        <f>IF(L72=B72,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O72" t="s">
         <v>243</v>
       </c>
-      <c r="P72">
-        <f>LEN(O72)</f>
+      <c r="Q72">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>82</v>
       </c>
@@ -5632,18 +7037,18 @@
         <v>620</v>
       </c>
       <c r="N73">
-        <f>IF(L73=B73,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O73" t="s">
-        <v>666</v>
-      </c>
-      <c r="P73">
-        <f>LEN(O73)</f>
+        <v>661</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>83</v>
       </c>
@@ -5681,18 +7086,18 @@
         <v>620</v>
       </c>
       <c r="N74">
-        <f>IF(L74=B74,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O74" t="s">
-        <v>659</v>
-      </c>
-      <c r="P74">
-        <f>LEN(O74)</f>
+        <v>654</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>84</v>
       </c>
@@ -5727,18 +7132,18 @@
         <v>620</v>
       </c>
       <c r="N75">
-        <f>IF(L75=B75,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O75" t="s">
-        <v>658</v>
-      </c>
-      <c r="P75">
-        <f>LEN(O75)</f>
+        <v>653</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>85</v>
       </c>
@@ -5773,18 +7178,18 @@
         <v>620</v>
       </c>
       <c r="N76">
-        <f>IF(L76=B76,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O76" t="s">
-        <v>660</v>
-      </c>
-      <c r="P76">
-        <f>LEN(O76)</f>
+        <v>655</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>86</v>
       </c>
@@ -5816,18 +7221,18 @@
         <v>619</v>
       </c>
       <c r="N77">
-        <f>IF(L77=B77,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O77" t="s">
         <v>265</v>
       </c>
-      <c r="P77">
-        <f>LEN(O77)</f>
+      <c r="Q77">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>87</v>
       </c>
@@ -5862,18 +7267,18 @@
         <v>619</v>
       </c>
       <c r="N78">
-        <f>IF(L78=B78,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O78" t="s">
-        <v>661</v>
-      </c>
-      <c r="P78">
-        <f>LEN(O78)</f>
+        <v>656</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>89</v>
       </c>
@@ -5905,21 +7310,21 @@
         <v>617</v>
       </c>
       <c r="N79">
-        <f>IF(L79=B79,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O79" t="s">
         <v>625</v>
       </c>
-      <c r="P79">
-        <f>LEN(O79)</f>
+      <c r="Q79">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="R79" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>90</v>
       </c>
@@ -5951,18 +7356,18 @@
         <v>619</v>
       </c>
       <c r="N80">
-        <f>IF(L80=B80,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O80" t="s">
         <v>276</v>
       </c>
-      <c r="P80">
-        <f>LEN(O80)</f>
+      <c r="Q80">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>91</v>
       </c>
@@ -5994,21 +7399,21 @@
         <v>614</v>
       </c>
       <c r="N81">
-        <f>IF(L81=B81,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O81" t="s">
         <v>279</v>
       </c>
-      <c r="P81">
-        <f>LEN(O81)</f>
+      <c r="Q81">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="R81" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>92</v>
       </c>
@@ -6040,21 +7445,21 @@
         <v>620</v>
       </c>
       <c r="N82">
-        <f>IF(L82=B82,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O82" t="s">
         <v>281</v>
       </c>
-      <c r="P82">
-        <f>LEN(O82)</f>
+      <c r="Q82">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="Q82" s="2" t="s">
+      <c r="R82" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>93</v>
       </c>
@@ -6086,18 +7491,18 @@
         <v>619</v>
       </c>
       <c r="N83">
-        <f>IF(L83=B83,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O83" t="s">
-        <v>662</v>
-      </c>
-      <c r="P83">
-        <f>LEN(O83)</f>
+        <v>657</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>94</v>
       </c>
@@ -6129,21 +7534,21 @@
         <v>619</v>
       </c>
       <c r="N84">
-        <f>IF(L84=B84,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O84" t="s">
         <v>288</v>
       </c>
-      <c r="P84">
-        <f>LEN(O84)</f>
+      <c r="Q84">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="Q84" s="1" t="s">
+      <c r="R84" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>95</v>
       </c>
@@ -6175,21 +7580,21 @@
         <v>619</v>
       </c>
       <c r="N85">
-        <f>IF(L85=B85,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O85" t="s">
         <v>628</v>
       </c>
-      <c r="P85">
-        <f>LEN(O85)</f>
+      <c r="Q85">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="R85" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>96</v>
       </c>
@@ -6221,21 +7626,21 @@
         <v>619</v>
       </c>
       <c r="N86">
-        <f>IF(L86=B86,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O86" t="s">
         <v>294</v>
       </c>
-      <c r="P86">
-        <f>LEN(O86)</f>
+      <c r="Q86">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="R86" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>97</v>
       </c>
@@ -6267,21 +7672,21 @@
         <v>619</v>
       </c>
       <c r="N87">
-        <f>IF(L87=B87,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O87" t="s">
         <v>634</v>
       </c>
-      <c r="P87">
-        <f>LEN(O87)</f>
+      <c r="Q87">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="R87" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>98</v>
       </c>
@@ -6316,21 +7721,21 @@
         <v>619</v>
       </c>
       <c r="N88">
-        <f>IF(L88=B88,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O88" t="s">
         <v>300</v>
       </c>
-      <c r="P88">
-        <f>LEN(O88)</f>
+      <c r="Q88">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="R88" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>99</v>
       </c>
@@ -6365,21 +7770,21 @@
         <v>619</v>
       </c>
       <c r="N89">
-        <f>IF(L89=B89,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O89" t="s">
         <v>304</v>
       </c>
-      <c r="P89">
-        <f>LEN(O89)</f>
+      <c r="Q89">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="R89" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>101</v>
       </c>
@@ -6411,18 +7816,21 @@
         <v>615</v>
       </c>
       <c r="N90">
-        <f>IF(L90=B90,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O90" t="s">
-        <v>639</v>
-      </c>
-      <c r="P90">
-        <f>LEN(O90)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1123</v>
+      </c>
+      <c r="P90" t="s">
+        <v>1122</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>102</v>
       </c>
@@ -6454,18 +7862,21 @@
         <v>615</v>
       </c>
       <c r="N91">
-        <f>IF(L91=B91,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O91" t="s">
-        <v>640</v>
-      </c>
-      <c r="P91">
-        <f>LEN(O91)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1124</v>
+      </c>
+      <c r="P91" t="s">
+        <v>1121</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>103</v>
       </c>
@@ -6497,18 +7908,21 @@
         <v>615</v>
       </c>
       <c r="N92">
-        <f>IF(L92=B92,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O92" t="s">
-        <v>641</v>
-      </c>
-      <c r="P92">
-        <f>LEN(O92)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+      <c r="P92" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>105</v>
       </c>
@@ -6543,21 +7957,24 @@
         <v>615</v>
       </c>
       <c r="N93">
-        <f>IF(L93=B93,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O93" t="s">
-        <v>636</v>
-      </c>
-      <c r="P93">
-        <f>LEN(O93)</f>
-        <v>12</v>
-      </c>
-      <c r="Q93" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="P93" t="s">
+        <v>1126</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="R93" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>106</v>
       </c>
@@ -6589,21 +8006,24 @@
         <v>615</v>
       </c>
       <c r="N94">
-        <f>IF(L94=B94,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O94" t="s">
+        <v>636</v>
+      </c>
+      <c r="P94" t="s">
+        <v>1127</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="R94" t="s">
         <v>637</v>
       </c>
-      <c r="P94">
-        <f>LEN(O94)</f>
-        <v>14</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>107</v>
       </c>
@@ -6635,18 +8055,21 @@
         <v>615</v>
       </c>
       <c r="N95">
-        <f>IF(L95=B95,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O95" t="s">
-        <v>643</v>
-      </c>
-      <c r="P95">
-        <f>LEN(O95)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+        <v>961</v>
+      </c>
+      <c r="P95" t="s">
+        <v>1128</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>108</v>
       </c>
@@ -6678,18 +8101,21 @@
         <v>615</v>
       </c>
       <c r="N96">
-        <f>IF(L96=B96,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O96" t="s">
-        <v>642</v>
-      </c>
-      <c r="P96">
-        <f>LEN(O96)</f>
+        <v>638</v>
+      </c>
+      <c r="P96" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>110</v>
       </c>
@@ -6721,18 +8147,18 @@
         <v>616</v>
       </c>
       <c r="N97">
-        <f>IF(L97=B97,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O97" t="s">
         <v>332</v>
       </c>
-      <c r="P97">
-        <f>LEN(O97)</f>
+      <c r="Q97">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>111</v>
       </c>
@@ -6764,18 +8190,18 @@
         <v>616</v>
       </c>
       <c r="N98">
-        <f>IF(L98=B98,1,0)</f>
+        <f t="shared" ref="N98:N129" si="6">IF(L98=B98,1,0)</f>
         <v>1</v>
       </c>
       <c r="O98" t="s">
-        <v>644</v>
-      </c>
-      <c r="P98">
-        <f>LEN(O98)</f>
+        <v>639</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" ref="Q98:Q129" si="7">LEN(O98)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>112</v>
       </c>
@@ -6807,18 +8233,18 @@
         <v>616</v>
       </c>
       <c r="N99">
-        <f>IF(L99=B99,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O99" t="s">
         <v>340</v>
       </c>
-      <c r="P99">
-        <f>LEN(O99)</f>
+      <c r="Q99">
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>113</v>
       </c>
@@ -6850,21 +8276,21 @@
         <v>616</v>
       </c>
       <c r="N100">
-        <f>IF(L100=B100,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O100" t="s">
-        <v>645</v>
-      </c>
-      <c r="P100">
-        <f>LEN(O100)</f>
+        <v>640</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="Q100" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R100" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>114</v>
       </c>
@@ -6896,21 +8322,21 @@
         <v>616</v>
       </c>
       <c r="N101">
-        <f>IF(L101=B101,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O101" t="s">
-        <v>648</v>
-      </c>
-      <c r="P101">
-        <f>LEN(O101)</f>
+        <v>643</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="Q101" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R101" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>115</v>
       </c>
@@ -6942,18 +8368,18 @@
         <v>616</v>
       </c>
       <c r="N102">
-        <f>IF(L102=B102,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O102" t="s">
-        <v>649</v>
-      </c>
-      <c r="P102">
-        <f>LEN(O102)</f>
+        <v>644</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>116</v>
       </c>
@@ -6985,18 +8411,18 @@
         <v>616</v>
       </c>
       <c r="N103">
-        <f>IF(L103=B103,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O103" t="s">
-        <v>650</v>
-      </c>
-      <c r="P103">
-        <f>LEN(O103)</f>
+        <v>645</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>117</v>
       </c>
@@ -7028,18 +8454,18 @@
         <v>616</v>
       </c>
       <c r="N104">
-        <f>IF(L104=B104,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O104" t="s">
-        <v>651</v>
-      </c>
-      <c r="P104">
-        <f>LEN(O104)</f>
+        <v>646</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>118</v>
       </c>
@@ -7071,18 +8497,18 @@
         <v>616</v>
       </c>
       <c r="N105">
-        <f>IF(L105=B105,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O105" t="s">
-        <v>652</v>
-      </c>
-      <c r="P105">
-        <f>LEN(O105)</f>
+        <v>647</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>119</v>
       </c>
@@ -7114,18 +8540,18 @@
         <v>616</v>
       </c>
       <c r="N106">
-        <f>IF(L106=B106,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O106" t="s">
         <v>368</v>
       </c>
-      <c r="P106">
-        <f>LEN(O106)</f>
+      <c r="Q106">
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>120</v>
       </c>
@@ -7157,18 +8583,18 @@
         <v>616</v>
       </c>
       <c r="N107">
-        <f>IF(L107=B107,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O107" t="s">
-        <v>653</v>
-      </c>
-      <c r="P107">
-        <f>LEN(O107)</f>
+        <v>648</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>121</v>
       </c>
@@ -7200,18 +8626,18 @@
         <v>616</v>
       </c>
       <c r="N108">
-        <f>IF(L108=B108,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O108" t="s">
-        <v>663</v>
-      </c>
-      <c r="P108">
-        <f>LEN(O108)</f>
+        <v>658</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>122</v>
       </c>
@@ -7243,18 +8669,18 @@
         <v>616</v>
       </c>
       <c r="N109">
-        <f>IF(L109=B109,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O109" t="s">
-        <v>665</v>
-      </c>
-      <c r="P109">
-        <f>LEN(O109)</f>
+        <v>660</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>123</v>
       </c>
@@ -7286,18 +8712,18 @@
         <v>622</v>
       </c>
       <c r="N110">
-        <f>IF(L110=B110,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O110" t="s">
-        <v>654</v>
-      </c>
-      <c r="P110">
-        <f>LEN(O110)</f>
+        <v>649</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>124</v>
       </c>
@@ -7329,18 +8755,18 @@
         <v>621</v>
       </c>
       <c r="N111">
-        <f>IF(L111=B111,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O111" t="s">
-        <v>656</v>
-      </c>
-      <c r="P111">
-        <f>LEN(O111)</f>
+        <v>651</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>125</v>
       </c>
@@ -7372,18 +8798,18 @@
         <v>619</v>
       </c>
       <c r="N112">
-        <f>IF(L112=B112,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O112" t="s">
         <v>391</v>
       </c>
-      <c r="P112">
-        <f>LEN(O112)</f>
+      <c r="Q112">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>126</v>
       </c>
@@ -7415,18 +8841,18 @@
         <v>619</v>
       </c>
       <c r="N113">
-        <f>IF(L113=B113,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O113" t="s">
         <v>394</v>
       </c>
-      <c r="P113">
-        <f>LEN(O113)</f>
+      <c r="Q113">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>127</v>
       </c>
@@ -7458,18 +8884,18 @@
         <v>621</v>
       </c>
       <c r="N114">
-        <f>IF(L114=B114,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O114" t="s">
         <v>423</v>
       </c>
-      <c r="P114">
-        <f>LEN(O114)</f>
+      <c r="Q114">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>128</v>
       </c>
@@ -7501,18 +8927,18 @@
         <v>621</v>
       </c>
       <c r="N115">
-        <f>IF(L115=B115,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O115" t="s">
-        <v>657</v>
-      </c>
-      <c r="P115">
-        <f>LEN(O115)</f>
+        <v>652</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>129</v>
       </c>
@@ -7544,18 +8970,18 @@
         <v>619</v>
       </c>
       <c r="N116">
-        <f>IF(L116=B116,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O116" t="s">
         <v>403</v>
       </c>
-      <c r="P116">
-        <f>LEN(O116)</f>
+      <c r="Q116">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>130</v>
       </c>
@@ -7587,18 +9013,18 @@
         <v>621</v>
       </c>
       <c r="N117">
-        <f>IF(L117=B117,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O117" t="s">
-        <v>664</v>
-      </c>
-      <c r="P117">
-        <f>LEN(O117)</f>
+        <v>659</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>131</v>
       </c>
@@ -7630,18 +9056,18 @@
         <v>619</v>
       </c>
       <c r="N118">
-        <f>IF(L118=B118,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O118" t="s">
-        <v>655</v>
-      </c>
-      <c r="P118">
-        <f>LEN(O118)</f>
+        <v>650</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>132</v>
       </c>
@@ -7676,21 +9102,21 @@
         <v>619</v>
       </c>
       <c r="N119">
-        <f>IF(L119=B119,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O119" t="s">
         <v>612</v>
       </c>
-      <c r="P119">
-        <f>LEN(O119)</f>
+      <c r="Q119">
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="Q119" t="s">
+      <c r="R119" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>133</v>
       </c>
@@ -7725,18 +9151,18 @@
         <v>621</v>
       </c>
       <c r="N120">
-        <f>IF(L120=B120,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O120" t="s">
         <v>420</v>
       </c>
-      <c r="P120">
-        <f>LEN(O120)</f>
+      <c r="Q120">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>134</v>
       </c>
@@ -7768,18 +9194,18 @@
         <v>621</v>
       </c>
       <c r="N121">
-        <f>IF(L121=B121,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O121" t="s">
         <v>608</v>
       </c>
-      <c r="P121">
-        <f>LEN(O121)</f>
+      <c r="Q121">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>135</v>
       </c>
@@ -7811,18 +9237,18 @@
         <v>621</v>
       </c>
       <c r="N122">
-        <f>IF(L122=B122,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O122" t="s">
         <v>609</v>
       </c>
-      <c r="P122">
-        <f>LEN(O122)</f>
+      <c r="Q122">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>136</v>
       </c>
@@ -7857,18 +9283,18 @@
         <v>621</v>
       </c>
       <c r="N123">
-        <f>IF(L123=B123,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O123" t="s">
         <v>610</v>
       </c>
-      <c r="P123">
-        <f>LEN(O123)</f>
+      <c r="Q123">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>138</v>
       </c>
@@ -7900,18 +9326,18 @@
         <v>618</v>
       </c>
       <c r="N124">
-        <f>IF(L124=B124,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O124" t="s">
         <v>430</v>
       </c>
-      <c r="P124">
-        <f>LEN(O124)</f>
+      <c r="Q124">
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>139</v>
       </c>
@@ -7943,18 +9369,18 @@
         <v>622</v>
       </c>
       <c r="N125">
-        <f>IF(L125=B125,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O125" t="s">
         <v>433</v>
       </c>
-      <c r="P125">
-        <f>LEN(O125)</f>
+      <c r="Q125">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>140</v>
       </c>
@@ -7986,18 +9412,18 @@
         <v>619</v>
       </c>
       <c r="N126">
-        <f>IF(L126=B126,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O126" t="s">
         <v>436</v>
       </c>
-      <c r="P126">
-        <f>LEN(O126)</f>
+      <c r="Q126">
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>141</v>
       </c>
@@ -8029,18 +9455,18 @@
         <v>614</v>
       </c>
       <c r="N127">
-        <f>IF(L127=B127,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O127" t="s">
         <v>439</v>
       </c>
-      <c r="P127">
-        <f>LEN(O127)</f>
+      <c r="Q127">
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>142</v>
       </c>
@@ -8072,18 +9498,18 @@
         <v>618</v>
       </c>
       <c r="N128">
-        <f>IF(L128=B128,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O128" t="s">
         <v>607</v>
       </c>
-      <c r="P128">
-        <f>LEN(O128)</f>
+      <c r="Q128">
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>143</v>
       </c>
@@ -8115,27 +9541,32 @@
         <v>620</v>
       </c>
       <c r="N129">
-        <f>IF(L129=B129,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O129" t="s">
         <v>446</v>
       </c>
-      <c r="P129">
-        <f>LEN(O129)</f>
+      <c r="Q129">
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q129">
+  <autoFilter ref="A1:R129">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="Octave オクターブ"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:Q129">
       <sortCondition ref="A1:A129"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="Q41" r:id="rId1"/>
-    <hyperlink ref="Q84" r:id="rId2"/>
-    <hyperlink ref="Q93" r:id="rId3"/>
+    <hyperlink ref="R41" r:id="rId1"/>
+    <hyperlink ref="R84" r:id="rId2"/>
+    <hyperlink ref="R93" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -8143,4 +9574,3150 @@
     <ignoredError sqref="B1:J1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G148"/>
+  <sheetViews>
+    <sheetView topLeftCell="C124" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C1" t="s">
+        <v>958</v>
+      </c>
+      <c r="D1" t="s">
+        <v>962</v>
+      </c>
+      <c r="F1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D2" t="str">
+        <f>TRIM(RIGHT(C2,LEN(TRIM(C2))-1))</f>
+        <v>ときめく むねは</v>
+      </c>
+      <c r="E2" t="s">
+        <v>959</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C3" t="s">
+        <v>812</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">TRIM(RIGHT(C3,LEN(TRIM(C3))-1))</f>
+        <v>かたおもいなの</v>
+      </c>
+      <c r="E3" t="s">
+        <v>973</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C4" t="s">
+        <v>813</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>こくはく します</v>
+      </c>
+      <c r="E4" t="s">
+        <v>964</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C5" t="s">
+        <v>814</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>『スキでした♥』</v>
+      </c>
+      <c r="E5" t="s">
+        <v>963</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>672</v>
+      </c>
+      <c r="C6" t="s">
+        <v>815</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>ひとみを とじて</v>
+      </c>
+      <c r="E6" t="s">
+        <v>965</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>673</v>
+      </c>
+      <c r="C7" t="s">
+        <v>816</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>なげキッス</v>
+      </c>
+      <c r="E7" t="s">
+        <v>966</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>674</v>
+      </c>
+      <c r="C8" t="s">
+        <v>817</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>あなたの ココロ</v>
+      </c>
+      <c r="E8" t="s">
+        <v>967</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>675</v>
+      </c>
+      <c r="C9" t="s">
+        <v>818</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>ドリーミン♥</v>
+      </c>
+      <c r="E9" t="s">
+        <v>968</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>676</v>
+      </c>
+      <c r="C10" t="s">
+        <v>819</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>ドキドキしちゃう</v>
+      </c>
+      <c r="E10" t="s">
+        <v>969</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>677</v>
+      </c>
+      <c r="C11" t="s">
+        <v>820</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>ピンクの ルージュは</v>
+      </c>
+      <c r="E11" t="s">
+        <v>970</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>678</v>
+      </c>
+      <c r="C12" t="s">
+        <v>821</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>ステキな よかん</v>
+      </c>
+      <c r="E12" t="s">
+        <v>971</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>679</v>
+      </c>
+      <c r="C13" t="s">
+        <v>822</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>ささやきたいの</v>
+      </c>
+      <c r="E13" t="s">
+        <v>972</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C14" t="s">
+        <v>823</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>『マイダーリン♥』</v>
+      </c>
+      <c r="E14" t="s">
+        <v>974</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>681</v>
+      </c>
+      <c r="C15" t="s">
+        <v>824</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>くちづけ したら</v>
+      </c>
+      <c r="E15" t="s">
+        <v>975</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C16" t="s">
+        <v>825</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>フォーリン ラブ♥</v>
+      </c>
+      <c r="E16" t="s">
+        <v>976</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>683</v>
+      </c>
+      <c r="C17" t="s">
+        <v>826</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>こいの てんしを</v>
+      </c>
+      <c r="E17" t="s">
+        <v>977</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>684</v>
+      </c>
+      <c r="C18" t="s">
+        <v>827</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>だきしめたい</v>
+      </c>
+      <c r="E18" t="s">
+        <v>978</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>685</v>
+      </c>
+      <c r="C19" t="s">
+        <v>828</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>アナタに むちゅう</v>
+      </c>
+      <c r="E19" t="s">
+        <v>979</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>686</v>
+      </c>
+      <c r="C20" t="s">
+        <v>829</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>ふたりの こいは</v>
+      </c>
+      <c r="E20" t="s">
+        <v>980</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>687</v>
+      </c>
+      <c r="C21" t="s">
+        <v>830</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>ママには ないしょ</v>
+      </c>
+      <c r="E21" t="s">
+        <v>981</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>688</v>
+      </c>
+      <c r="C22" t="s">
+        <v>831</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>そっと つぶやく</v>
+      </c>
+      <c r="E22" t="s">
+        <v>982</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>689</v>
+      </c>
+      <c r="C23" t="s">
+        <v>832</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>『ごめんなさい……』</v>
+      </c>
+      <c r="E23" t="s">
+        <v>983</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>690</v>
+      </c>
+      <c r="C24" t="s">
+        <v>833</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>アナタと ふたり</v>
+      </c>
+      <c r="E24" t="s">
+        <v>984</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>691</v>
+      </c>
+      <c r="C25" t="s">
+        <v>834</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>ゆめの くに</v>
+      </c>
+      <c r="E25" t="s">
+        <v>985</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>692</v>
+      </c>
+      <c r="C26" t="s">
+        <v>835</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>はじめての こい</v>
+      </c>
+      <c r="E26" t="s">
+        <v>986</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>693</v>
+      </c>
+      <c r="C27" t="s">
+        <v>836</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>わすれない</v>
+      </c>
+      <c r="E27" t="s">
+        <v>987</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>694</v>
+      </c>
+      <c r="C28" t="s">
+        <v>837</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>ゆめみる しょうじょ</v>
+      </c>
+      <c r="E28" t="s">
+        <v>988</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>695</v>
+      </c>
+      <c r="C29" t="s">
+        <v>838</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>しろい チャペルは</v>
+      </c>
+      <c r="E29" t="s">
+        <v>989</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>696</v>
+      </c>
+      <c r="C30" t="s">
+        <v>839</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>ふたりの ひみつ</v>
+      </c>
+      <c r="E30" t="s">
+        <v>990</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>697</v>
+      </c>
+      <c r="C31" t="s">
+        <v>840</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>ほほえみ ながら</v>
+      </c>
+      <c r="E31" t="s">
+        <v>991</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>698</v>
+      </c>
+      <c r="C32" t="s">
+        <v>841</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>『じゃあ またね♥』</v>
+      </c>
+      <c r="E32" t="s">
+        <v>992</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>699</v>
+      </c>
+      <c r="C33" t="s">
+        <v>842</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>チーズケーキで</v>
+      </c>
+      <c r="E33" t="s">
+        <v>993</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>700</v>
+      </c>
+      <c r="C34" t="s">
+        <v>843</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>さよならね</v>
+      </c>
+      <c r="E34" t="s">
+        <v>994</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>701</v>
+      </c>
+      <c r="C35" t="s">
+        <v>844</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>キミの そのゆめ</v>
+      </c>
+      <c r="E35" t="s">
+        <v>995</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>702</v>
+      </c>
+      <c r="C36" t="s">
+        <v>845</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>しんじてる</v>
+      </c>
+      <c r="E36" t="s">
+        <v>996</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>703</v>
+      </c>
+      <c r="C37" t="s">
+        <v>846</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>つれて いってね</v>
+      </c>
+      <c r="E37" t="s">
+        <v>997</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>663</v>
+      </c>
+      <c r="C38" t="s">
+        <v>847</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>あかい マントは</v>
+      </c>
+      <c r="E38" t="s">
+        <v>998</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>704</v>
+      </c>
+      <c r="C39" t="s">
+        <v>848</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>せいぎの ちかい</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>705</v>
+      </c>
+      <c r="C40" t="s">
+        <v>849</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>いまだ! ぶつけろ!</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>706</v>
+      </c>
+      <c r="C41" t="s">
+        <v>850</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>『サンダガ パンチ!』</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>707</v>
+      </c>
+      <c r="C42" t="s">
+        <v>851</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>さあ クリスタルで</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>708</v>
+      </c>
+      <c r="C43" t="s">
+        <v>852</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>へんしんだ!</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>709</v>
+      </c>
+      <c r="C44" t="s">
+        <v>853</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>だいかいじゅうを</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>710</v>
+      </c>
+      <c r="C45" t="s">
+        <v>854</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>なぎたおせ</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>711</v>
+      </c>
+      <c r="C46" t="s">
+        <v>855</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>ゆくぞ ボクらの</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>712</v>
+      </c>
+      <c r="C47" t="s">
+        <v>856</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>もえる ゆうひは</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>713</v>
+      </c>
+      <c r="C48" t="s">
+        <v>857</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>しょうりの あかし</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>714</v>
+      </c>
+      <c r="C49" t="s">
+        <v>858</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>だれかが よんでる</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>715</v>
+      </c>
+      <c r="C50" t="s">
+        <v>859</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>『ブリザガ キック!』</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>716</v>
+      </c>
+      <c r="C51" t="s">
+        <v>860</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>あいと ゆうきで</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>717</v>
+      </c>
+      <c r="C52" t="s">
+        <v>861</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>とんでゆけ!</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>718</v>
+      </c>
+      <c r="C53" t="s">
+        <v>862</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>うちゅうの へいわ</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>719</v>
+      </c>
+      <c r="C54" t="s">
+        <v>863</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>まもりぬけ</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>720</v>
+      </c>
+      <c r="C55" t="s">
+        <v>864</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>せいぎの みかた</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>721</v>
+      </c>
+      <c r="C56" t="s">
+        <v>865</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>ひかる つるぎは</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>722</v>
+      </c>
+      <c r="C57" t="s">
+        <v>866</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>ゆうしゃの しるし</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>723</v>
+      </c>
+      <c r="C58" t="s">
+        <v>867</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>あくの てさきに</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>724</v>
+      </c>
+      <c r="C59" t="s">
+        <v>868</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>『ファイガ アタック!』</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>725</v>
+      </c>
+      <c r="C60" t="s">
+        <v>869</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>ゆうじょう パワーで</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>726</v>
+      </c>
+      <c r="C61" t="s">
+        <v>870</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>がったいだ!</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>727</v>
+      </c>
+      <c r="C62" t="s">
+        <v>871</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>せいぎの いかりを</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>728</v>
+      </c>
+      <c r="C63" t="s">
+        <v>872</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>つらぬくぞ</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>729</v>
+      </c>
+      <c r="C64" t="s">
+        <v>873</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>ぎんが ヒーロー</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>730</v>
+      </c>
+      <c r="C65" t="s">
+        <v>874</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>するどい ツメは</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>731</v>
+      </c>
+      <c r="C66" t="s">
+        <v>875</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>じゃあくな こころ</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>732</v>
+      </c>
+      <c r="C67" t="s">
+        <v>876</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D130" si="1">TRIM(RIGHT(C67,LEN(TRIM(C67))-1))</f>
+        <v>くらえ! ひっさつ!</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>733</v>
+      </c>
+      <c r="C68" t="s">
+        <v>877</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>『ケアルガ ビーム!』</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>734</v>
+      </c>
+      <c r="C69" t="s">
+        <v>878</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>あつい ちしおで</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>735</v>
+      </c>
+      <c r="C70" t="s">
+        <v>879</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>ひを つけろ!</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>736</v>
+      </c>
+      <c r="C71" t="s">
+        <v>880</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>きょだいな てきを</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>737</v>
+      </c>
+      <c r="C72" t="s">
+        <v>881</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>ゆるすまじ</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>738</v>
+      </c>
+      <c r="C73" t="s">
+        <v>882</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>むてきの せんし</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>739</v>
+      </c>
+      <c r="C74" t="s">
+        <v>883</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>おやじの ふねは</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>740</v>
+      </c>
+      <c r="C75" t="s">
+        <v>884</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>きたぐに そだち</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>741</v>
+      </c>
+      <c r="C76" t="s">
+        <v>885</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>りょうしの うたは</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>742</v>
+      </c>
+      <c r="C77" t="s">
+        <v>886</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>『エンヤコラ〜』</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>666</v>
+      </c>
+      <c r="C78" t="s">
+        <v>887</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>ぎりと にんじょで</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>743</v>
+      </c>
+      <c r="C79" t="s">
+        <v>888</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>ナニワぶし</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>744</v>
+      </c>
+      <c r="C80" t="s">
+        <v>889</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>とわの きずなを</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>745</v>
+      </c>
+      <c r="C81" t="s">
+        <v>890</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>のみほした</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>746</v>
+      </c>
+      <c r="C82" t="s">
+        <v>891</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>みなとの まちさ</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>747</v>
+      </c>
+      <c r="C83" t="s">
+        <v>892</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>ネオンの まちは</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>748</v>
+      </c>
+      <c r="C84" t="s">
+        <v>893</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>みれんが つのる</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>749</v>
+      </c>
+      <c r="C85" t="s">
+        <v>894</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>うみが ないてる</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>750</v>
+      </c>
+      <c r="C86" t="s">
+        <v>895</v>
+      </c>
+      <c r="D86" t="str">
+        <f>TRIM(RIGHT(C86,LEN(TRIM(C86))-1))</f>
+        <v>『ハ〜 ヨサコイ』</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>751</v>
+      </c>
+      <c r="C87" t="s">
+        <v>896</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>よるの さかばで</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>752</v>
+      </c>
+      <c r="C88" t="s">
+        <v>897</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>のむ さけは</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>753</v>
+      </c>
+      <c r="C89" t="s">
+        <v>898</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>ごぞう ろっぷを</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>754</v>
+      </c>
+      <c r="C90" t="s">
+        <v>899</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>なぐさめる</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>755</v>
+      </c>
+      <c r="C91" t="s">
+        <v>900</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>それが おとこの</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>756</v>
+      </c>
+      <c r="C92" t="s">
+        <v>901</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>おきの カモメは</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>664</v>
+      </c>
+      <c r="C93" t="s">
+        <v>902</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>ヒュルリラ ヒュルリ</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>757</v>
+      </c>
+      <c r="C94" t="s">
+        <v>903</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>てがみに かいた</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>758</v>
+      </c>
+      <c r="C95" t="s">
+        <v>904</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>『おふくろさん……』</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>759</v>
+      </c>
+      <c r="C96" t="s">
+        <v>905</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>さけと なみだで</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>760</v>
+      </c>
+      <c r="C97" t="s">
+        <v>906</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>ひとりたび</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>761</v>
+      </c>
+      <c r="C98" t="s">
+        <v>907</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>おんな ごころを</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>762</v>
+      </c>
+      <c r="C99" t="s">
+        <v>908</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>うらみます</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>763</v>
+      </c>
+      <c r="C100" t="s">
+        <v>909</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>えんかみちだよ</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>764</v>
+      </c>
+      <c r="C101" t="s">
+        <v>910</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>しょせん おとこは</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>765</v>
+      </c>
+      <c r="C102" t="s">
+        <v>911</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>さむさが しみる</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>766</v>
+      </c>
+      <c r="C103" t="s">
+        <v>912</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>つたえて おくれ</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>767</v>
+      </c>
+      <c r="C104" t="s">
+        <v>913</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>この おもい</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>768</v>
+      </c>
+      <c r="C105" t="s">
+        <v>914</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>いっそ このまま</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>769</v>
+      </c>
+      <c r="C106" t="s">
+        <v>915</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>じごくまで</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>770</v>
+      </c>
+      <c r="C107" t="s">
+        <v>916</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>おいらの いのち</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>771</v>
+      </c>
+      <c r="C108" t="s">
+        <v>917</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>くれてやる</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>772</v>
+      </c>
+      <c r="C109" t="s">
+        <v>918</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>よかぜが つらい</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>773</v>
+      </c>
+      <c r="C110" t="s">
+        <v>919</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="1"/>
+        <v>おれの ハートは</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>774</v>
+      </c>
+      <c r="C111" t="s">
+        <v>920</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v>ダイナマイ だぜ</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>775</v>
+      </c>
+      <c r="C112" t="s">
+        <v>921</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>さけび つづけろ</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>776</v>
+      </c>
+      <c r="C113" t="s">
+        <v>922</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="1"/>
+        <v>『オー イエー!』</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>777</v>
+      </c>
+      <c r="C114" t="s">
+        <v>923</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="1"/>
+        <v>だきあう たびに</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>778</v>
+      </c>
+      <c r="C115" t="s">
+        <v>924</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="1"/>
+        <v>アイラブユー</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>779</v>
+      </c>
+      <c r="C116" t="s">
+        <v>925</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="1"/>
+        <v>こんや おまえを</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>780</v>
+      </c>
+      <c r="C117" t="s">
+        <v>926</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="1"/>
+        <v>ホールド オン</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>781</v>
+      </c>
+      <c r="C118" t="s">
+        <v>927</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v>キスミー ベイベー</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>782</v>
+      </c>
+      <c r="C119" t="s">
+        <v>928</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="1"/>
+        <v>ミッドナイトは</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>783</v>
+      </c>
+      <c r="C120" t="s">
+        <v>929</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="1"/>
+        <v>オー ロンリネス</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>665</v>
+      </c>
+      <c r="C121" t="s">
+        <v>930</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="1"/>
+        <v>なんども いうぜ</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>667</v>
+      </c>
+      <c r="C122" t="s">
+        <v>931</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="1"/>
+        <v>『フォーエバー』</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>784</v>
+      </c>
+      <c r="C123" t="s">
+        <v>932</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="1"/>
+        <v>オールナイトで</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>785</v>
+      </c>
+      <c r="C124" t="s">
+        <v>933</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="1"/>
+        <v>アイウォンチュー</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>786</v>
+      </c>
+      <c r="C125" t="s">
+        <v>934</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="1"/>
+        <v>ブロークンハートを</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>787</v>
+      </c>
+      <c r="C126" t="s">
+        <v>935</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="1"/>
+        <v>すてちまえ</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>788</v>
+      </c>
+      <c r="C127" t="s">
+        <v>936</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="1"/>
+        <v>ワンウェイ ラブさ</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>789</v>
+      </c>
+      <c r="C128" t="s">
+        <v>937</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="1"/>
+        <v>ロックンロールは</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>790</v>
+      </c>
+      <c r="C129" t="s">
+        <v>938</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="1"/>
+        <v>こころの さけび</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>791</v>
+      </c>
+      <c r="C130" t="s">
+        <v>939</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="1"/>
+        <v>おまえの ひとみに</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>792</v>
+      </c>
+      <c r="C131" t="s">
+        <v>940</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" ref="D131:D148" si="2">TRIM(RIGHT(C131,LEN(TRIM(C131))-1))</f>
+        <v>『カモン トゥナイト』</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>793</v>
+      </c>
+      <c r="C132" t="s">
+        <v>941</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="2"/>
+        <v>ハイな ビートで</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>794</v>
+      </c>
+      <c r="C133" t="s">
+        <v>942</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="2"/>
+        <v>ダンシング</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>795</v>
+      </c>
+      <c r="C134" t="s">
+        <v>943</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="2"/>
+        <v>おとなの ルール</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>796</v>
+      </c>
+      <c r="C135" t="s">
+        <v>944</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="2"/>
+        <v>ぶっこわす</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>797</v>
+      </c>
+      <c r="C136" t="s">
+        <v>945</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="2"/>
+        <v>セクシー エンジェル</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>798</v>
+      </c>
+      <c r="C137" t="s">
+        <v>946</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="2"/>
+        <v>こいの レースは</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>799</v>
+      </c>
+      <c r="C138" t="s">
+        <v>947</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="2"/>
+        <v>ファイナル ラップ</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>800</v>
+      </c>
+      <c r="C139" t="s">
+        <v>948</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="2"/>
+        <v>つきに ほえろよ</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F139" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>801</v>
+      </c>
+      <c r="C140" t="s">
+        <v>949</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="2"/>
+        <v>『オー ジーザス!』</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>802</v>
+      </c>
+      <c r="C141" t="s">
+        <v>950</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="2"/>
+        <v>ノンストップで</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>803</v>
+      </c>
+      <c r="C142" t="s">
+        <v>951</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="2"/>
+        <v>ヒートアップ</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F142" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>804</v>
+      </c>
+      <c r="C143" t="s">
+        <v>952</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="2"/>
+        <v>ブルーな きもち</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F143" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>805</v>
+      </c>
+      <c r="C144" t="s">
+        <v>953</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="2"/>
+        <v>ノックアウト</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F144" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>806</v>
+      </c>
+      <c r="C145" t="s">
+        <v>954</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="2"/>
+        <v>スイート ハニー</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F145" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>807</v>
+      </c>
+      <c r="C146" t="s">
+        <v>955</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="2"/>
+        <v>オクターブ</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>808</v>
+      </c>
+      <c r="C147" t="s">
+        <v>956</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="2"/>
+        <v>オクタ〜ブ</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>809</v>
+      </c>
+      <c r="C148" t="s">
+        <v>957</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="2"/>
+        <v>オクタ〜ブ〜</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G95" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/notes/items.xlsx
+++ b/notes/items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="570" windowWidth="15015" windowHeight="11190" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="630" yWindow="570" windowWidth="15015" windowHeight="11190" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
     <sheet name="Memory Mapping" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Normal Quiz'!$A$1:$Q$125</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="2205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="2306">
   <si>
     <t>Original</t>
   </si>
@@ -6639,13 +6640,316 @@
   </si>
   <si>
     <t>C1AA</t>
+  </si>
+  <si>
+    <t>no change</t>
+  </si>
+  <si>
+    <t>5EA00</t>
+  </si>
+  <si>
+    <t>宇宙からこんにちは!</t>
+  </si>
+  <si>
+    <t>Hello from space!</t>
+  </si>
+  <si>
+    <t>ババンババン</t>
+  </si>
+  <si>
+    <t>ねずみの星からｃｈｕ!</t>
+  </si>
+  <si>
+    <t>ねずみの星からババンババン</t>
+  </si>
+  <si>
+    <t>Clock Beat</t>
+  </si>
+  <si>
+    <t>Ailien in the dark</t>
+  </si>
+  <si>
+    <t>Die in Skullbone!</t>
+  </si>
+  <si>
+    <t>デスボーン様にひざまずけ!</t>
+  </si>
+  <si>
+    <t>サンドの飯より、お宝発掘!</t>
+  </si>
+  <si>
+    <t>だめだ、こりゃ</t>
+  </si>
+  <si>
+    <t>A Bacteria Dance Song</t>
+  </si>
+  <si>
+    <t>歌は世につれ</t>
+  </si>
+  <si>
+    <t>俺に歌わせろ!</t>
+  </si>
+  <si>
+    <t>オクターブながれ旅</t>
+  </si>
+  <si>
+    <t>まもるぞ! ぼくらのオクターブ!</t>
+  </si>
+  <si>
+    <t>キス☆ミー! オクターブ</t>
+  </si>
+  <si>
+    <t>オクターブハウス ロック</t>
+  </si>
+  <si>
+    <t>結果発表!</t>
+  </si>
+  <si>
+    <t>This is hopeless</t>
+  </si>
+  <si>
+    <t>As the song goes, so goes the world</t>
+  </si>
+  <si>
+    <t>Let me sing!</t>
+  </si>
+  <si>
+    <t>Journey passing by Octave</t>
+  </si>
+  <si>
+    <t>Kiss ☆ me! Octave!</t>
+  </si>
+  <si>
+    <t>Octave House Rock</t>
+  </si>
+  <si>
+    <t>Results announcement!</t>
+  </si>
+  <si>
+    <t>Alien in the dark</t>
+  </si>
+  <si>
+    <t>Octave Karaoke Box</t>
+  </si>
+  <si>
+    <t>Octave Race</t>
+  </si>
+  <si>
+    <t>Moleman Cave</t>
+  </si>
+  <si>
+    <t>Sand Planet</t>
+  </si>
+  <si>
+    <t>Death Metal concert</t>
+  </si>
+  <si>
+    <t>Monster Stomach</t>
+  </si>
+  <si>
+    <t>Mouse Planet race</t>
+  </si>
+  <si>
+    <t>Mouse Planet</t>
+  </si>
+  <si>
+    <t>Reaching the goal</t>
+  </si>
+  <si>
+    <t>ダイナマイ・ブギー!!</t>
+  </si>
+  <si>
+    <t>Dynami Boogie</t>
+  </si>
+  <si>
+    <t>Babambabam</t>
+  </si>
+  <si>
+    <t>Title Screen / Character Select</t>
+  </si>
+  <si>
+    <t>Deathbone Lair / Cemetery</t>
+  </si>
+  <si>
+    <t>Winner's Ending</t>
+  </si>
+  <si>
+    <t>Zophar ID</t>
+  </si>
+  <si>
+    <t>Zophar Name</t>
+  </si>
+  <si>
+    <t>Ending 3</t>
+  </si>
+  <si>
+    <t>Ending 2</t>
+  </si>
+  <si>
+    <t>Ending 1</t>
+  </si>
+  <si>
+    <t>Victory 2</t>
+  </si>
+  <si>
+    <t>Victory 1</t>
+  </si>
+  <si>
+    <t>Drumroll</t>
+  </si>
+  <si>
+    <t>not a track</t>
+  </si>
+  <si>
+    <t>Monster Stomac</t>
+  </si>
+  <si>
+    <t>Space Station</t>
+  </si>
+  <si>
+    <t>Skull Bone 2</t>
+  </si>
+  <si>
+    <t>Skull Bone 1</t>
+  </si>
+  <si>
+    <t>Clockwork Star</t>
+  </si>
+  <si>
+    <t>Twin Star 2</t>
+  </si>
+  <si>
+    <t>Twin Star 1</t>
+  </si>
+  <si>
+    <t>Music Factory</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Octave Enka Theme Song</t>
+  </si>
+  <si>
+    <t>Octave Hero Theme Song</t>
+  </si>
+  <si>
+    <t>Octave Idol Theme Song</t>
+  </si>
+  <si>
+    <t>Octave Rock Theme Song</t>
+  </si>
+  <si>
+    <t>Satella / Station</t>
+  </si>
+  <si>
+    <t>Introduction / Space Map</t>
+  </si>
+  <si>
+    <t>SPTC</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Game Section</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Kneel before Lord Deathbone!</t>
+  </si>
+  <si>
+    <t>Sand's livelihood, digging up treasures</t>
+  </si>
+  <si>
+    <t>Let's protect our Octave!</t>
+  </si>
+  <si>
+    <t>Track</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Official Title</t>
+  </si>
+  <si>
+    <t>01%20-%20Hello%20from%20space!.spc</t>
+  </si>
+  <si>
+    <t>02%20-%20Babambabam.spc</t>
+  </si>
+  <si>
+    <t>03%20-%20Squeak%20from%20the%20Mouse%20Planet.spc</t>
+  </si>
+  <si>
+    <t>04%20-%20Babambabam%20from%20the%20Mouse%20Planet.spc</t>
+  </si>
+  <si>
+    <t>05%20-%20Clock%20Beat.spc</t>
+  </si>
+  <si>
+    <t>06%20-%20Alien%20in%20the%20dark.spc</t>
+  </si>
+  <si>
+    <t>07%20-%20Die%20in%20Skullbone!.spc</t>
+  </si>
+  <si>
+    <t>08%20-%20Kneel%20before%20Lord%20Deathbone!.spc</t>
+  </si>
+  <si>
+    <t>09%20-%20Sand's%20livelihood,%20digging%20up%20treasures.spc</t>
+  </si>
+  <si>
+    <t>10%20-%20This%20is%20hopeless.spc</t>
+  </si>
+  <si>
+    <t>11%20-%20A%20Bacteria%20Dance%20Song.spc</t>
+  </si>
+  <si>
+    <t>12%20-%20As%20the%20song%20goes,%20so%20goes%20the%20world.spc</t>
+  </si>
+  <si>
+    <t>13%20-%20Let%20me%20sing!.spc</t>
+  </si>
+  <si>
+    <t>14%20-%20Journey%20passing%20by%20Octave.spc</t>
+  </si>
+  <si>
+    <t>15%20-%20Let's%20protect%20our%20Octave!.spc</t>
+  </si>
+  <si>
+    <t>16%20-%20Kiss%20☆%20me!%20Octave!.spc</t>
+  </si>
+  <si>
+    <t>17%20-%20Octave%20House%20Rock.spc</t>
+  </si>
+  <si>
+    <t>18%20-%20Results%20announcement!.spc</t>
+  </si>
+  <si>
+    <t>19%20-%20Dynami%20Boogie.spc</t>
+  </si>
+  <si>
+    <t>Squeak from the Mouse Planet</t>
+  </si>
+  <si>
+    <t>Babambabam from the Mouse Planet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6666,6 +6970,13 @@
       <color rgb="FF6A8759"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6689,7 +7000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6722,6 +7033,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -23525,7 +23840,7 @@
   <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23891,8 +24206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24078,7 +24393,7 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>59000</v>
+        <v>53100</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -24127,6 +24442,9 @@
       <c r="H9">
         <v>2</v>
       </c>
+      <c r="I9" s="5" t="s">
+        <v>2205</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -24230,6 +24548,9 @@
       <c r="H13">
         <v>2</v>
       </c>
+      <c r="I13" s="16" t="s">
+        <v>2206</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -24277,6 +24598,9 @@
       <c r="H15">
         <v>3</v>
       </c>
+      <c r="I15">
+        <v>50000</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -24320,6 +24644,867 @@
       <c r="E21" t="str">
         <f t="shared" si="2"/>
         <v>568F</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.375" customWidth="1"/>
+    <col min="6" max="6" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.125" customWidth="1"/>
+    <col min="8" max="9" width="25.875" customWidth="1"/>
+    <col min="10" max="10" width="36.375" customWidth="1"/>
+    <col min="12" max="12" width="9.25" customWidth="1"/>
+    <col min="14" max="14" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2208</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE("00:00 Track ",B2," - ",D2)</f>
+        <v>00:00 Track 1 - Hello from space!</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="G2" t="str">
+        <f>CONCATENATE("[spc](ost/",H2,")")</f>
+        <v>[spc](ost/01%20-%20Hello%20from%20space!.spc)</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2285</v>
+      </c>
+      <c r="J2" t="str">
+        <f>CONCATENATE(C2," - ",D2)</f>
+        <v>宇宙からこんにちは! - Hello from space!</v>
+      </c>
+      <c r="M2" s="17">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>2209</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E20" si="0">CONCATENATE("00:00 Track ",B3," - ",D3)</f>
+        <v>00:00 Track 2 - Babambabam</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2246</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G20" si="1">CONCATENATE("[spc](ost/",H3,")")</f>
+        <v>[spc](ost/02%20-%20Babambabam.spc)</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2286</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J21" si="2">CONCATENATE(C3," - ",D3)</f>
+        <v>ババンババン - Babambabam</v>
+      </c>
+      <c r="M3" s="17">
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2304</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00 Track 3 - Squeak from the Mouse Planet</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2241</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>[spc](ost/03%20-%20Squeak%20from%20the%20Mouse%20Planet.spc)</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2287</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="2"/>
+        <v>ねずみの星からｃｈｕ! - Squeak from the Mouse Planet</v>
+      </c>
+      <c r="M4" s="17">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2305</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00 Track 4 - Babambabam from the Mouse Planet</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2240</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>[spc](ost/04%20-%20Babambabam%20from%20the%20Mouse%20Planet.spc)</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>ねずみの星からババンババン - Babambabam from the Mouse Planet</v>
+      </c>
+      <c r="M5" s="17">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2212</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00 Track 5 - Clock Beat</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2262</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>[spc](ost/05%20-%20Clock%20Beat.spc)</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2289</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="2"/>
+        <v>Clock Beat - Clock Beat</v>
+      </c>
+      <c r="M6" s="17">
+        <v>9.8611111111111108E-2</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2233</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00 Track 6 - Alien in the dark</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2273</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>[spc](ost/06%20-%20Alien%20in%20the%20dark.spc)</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v>Ailien in the dark - Alien in the dark</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0.12013888888888889</v>
+      </c>
+      <c r="N7">
+        <v>9</v>
+      </c>
+      <c r="O7" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00 Track 7 - Die in Skullbone!</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2238</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>[spc](ost/07%20-%20Die%20in%20Skullbone!.spc)</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2291</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v>Die in Skullbone! - Die in Skullbone!</v>
+      </c>
+      <c r="M8" s="17">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="O8" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2279</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00 Track 8 - Kneel before Lord Deathbone!</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2247</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>[spc](ost/08%20-%20Kneel%20before%20Lord%20Deathbone!.spc)</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2292</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="2"/>
+        <v>デスボーン様にひざまずけ! - Kneel before Lord Deathbone!</v>
+      </c>
+      <c r="M9" s="17">
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2280</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00 Track 9 - Sand's livelihood, digging up treasures</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2237</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>[spc](ost/09%20-%20Sand's%20livelihood,%20digging%20up%20treasures.spc)</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2293</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v>サンドの飯より、お宝発掘! - Sand's livelihood, digging up treasures</v>
+      </c>
+      <c r="M10" s="17">
+        <v>0.10347222222222223</v>
+      </c>
+      <c r="N10">
+        <v>11</v>
+      </c>
+      <c r="O10" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>2217</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00 Track 10 - This is hopeless</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2236</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>[spc](ost/10%20-%20This%20is%20hopeless.spc)</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2294</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>だめだ、こりゃ - This is hopeless</v>
+      </c>
+      <c r="M11" s="17">
+        <v>3.6805555555555557E-2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>2268</v>
+      </c>
+      <c r="O11" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2218</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00 Track 11 - A Bacteria Dance Song</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2239</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>[spc](ost/11%20-%20A%20Bacteria%20Dance%20Song.spc)</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2295</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="2"/>
+        <v>A Bacteria Dance Song - A Bacteria Dance Song</v>
+      </c>
+      <c r="M12" s="17">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00 Track 12 - As the song goes, so goes the world</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2234</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>[spc](ost/12%20-%20As%20the%20song%20goes,%20so%20goes%20the%20world.spc)</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2296</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="2"/>
+        <v>歌は世につれ - As the song goes, so goes the world</v>
+      </c>
+      <c r="M13" s="17">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2228</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00 Track 13 - Let me sing!</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2235</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>[spc](ost/13%20-%20Let%20me%20sing!.spc)</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2297</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="2"/>
+        <v>俺に歌わせろ! - Let me sing!</v>
+      </c>
+      <c r="L14" s="17">
+        <v>9.1666666666666674E-2</v>
+      </c>
+      <c r="M14" s="17">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>2268</v>
+      </c>
+      <c r="O14" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2229</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00 Track 14 - Journey passing by Octave</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2269</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>[spc](ost/14%20-%20Journey%20passing%20by%20Octave.spc)</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2298</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v>オクターブながれ旅 - Journey passing by Octave</v>
+      </c>
+      <c r="M15" s="17">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="N15">
+        <v>15</v>
+      </c>
+      <c r="O15" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2281</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00 Track 15 - Let's protect our Octave!</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2270</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>[spc](ost/15%20-%20Let's%20protect%20our%20Octave!.spc)</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2299</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="2"/>
+        <v>まもるぞ! ぼくらのオクターブ! - Let's protect our Octave!</v>
+      </c>
+      <c r="L16" s="17">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="M16" s="17">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="N16">
+        <v>17</v>
+      </c>
+      <c r="O16" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00 Track 16 - Kiss ☆ me! Octave!</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2271</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>[spc](ost/16%20-%20Kiss%20☆%20me!%20Octave!.spc)</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2300</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="2"/>
+        <v>キス☆ミー! オクターブ - Kiss ☆ me! Octave!</v>
+      </c>
+      <c r="M17" s="17">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="N17">
+        <v>16</v>
+      </c>
+      <c r="O17" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00 Track 17 - Octave House Rock</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2272</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>[spc](ost/17%20-%20Octave%20House%20Rock.spc)</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2301</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="2"/>
+        <v>オクターブハウス ロック - Octave House Rock</v>
+      </c>
+      <c r="M18" s="17">
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="N18">
+        <v>14</v>
+      </c>
+      <c r="O18" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>2225</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00 Track 18 - Results announcement!</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2242</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>[spc](ost/18%20-%20Results%20announcement!.spc)</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2302</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="2"/>
+        <v>結果発表! - Results announcement!</v>
+      </c>
+      <c r="M19" s="17">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="N19">
+        <v>13</v>
+      </c>
+      <c r="O19" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2244</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00 Track 19 - Dynami Boogie</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2248</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>[spc](ost/19%20-%20Dynami%20Boogie.spc)</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2303</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="2"/>
+        <v>ダイナマイ・ブギー!! - Dynami Boogie</v>
+      </c>
+      <c r="N20" t="s">
+        <v>2268</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J21" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="N21">
+        <v>12</v>
+      </c>
+      <c r="O21" t="s">
+        <v>2256</v>
+      </c>
+      <c r="P21" t="s">
+        <v>2257</v>
       </c>
     </row>
   </sheetData>
